--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1112157.738571275</v>
+        <v>1108489.135830686</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7024305.338384027</v>
+        <v>7033878.550926704</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14660963.01911776</v>
+        <v>14679654.06804665</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5782159.00623836</v>
+        <v>5775293.729104646</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K11" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L11" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M11" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N11" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O11" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P11" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K12" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L12" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M12" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N12" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O12" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P12" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,19 +8851,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M13" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N13" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O13" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P13" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K14" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L14" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M14" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N14" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O14" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P14" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K15" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L15" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M15" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N15" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O15" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P15" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,19 +9088,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M16" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N16" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O16" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P16" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K17" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L17" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M17" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N17" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O17" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P17" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K18" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L18" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M18" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N18" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O18" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P18" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,19 +9325,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M19" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N19" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O19" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P19" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K20" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L20" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M20" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N20" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O20" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P20" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K21" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L21" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M21" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N21" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O21" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P21" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,19 +9562,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M22" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N22" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O22" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P22" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K23" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L23" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M23" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N23" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O23" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P23" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K24" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L24" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M24" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N24" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O24" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P24" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,19 +9799,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M25" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N25" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O25" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P25" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K26" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L26" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M26" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N26" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O26" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P26" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K27" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L27" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M27" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N27" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O27" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P27" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10036,19 +10036,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M28" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N28" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O28" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P28" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K29" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L29" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M29" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N29" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O29" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P29" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K30" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L30" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M30" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N30" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O30" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P30" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,19 +10273,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M31" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N31" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O31" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P31" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K32" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L32" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M32" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N32" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O32" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P32" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K33" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L33" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M33" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N33" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O33" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P33" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,19 +10510,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M34" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N34" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O34" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P34" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K35" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L35" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M35" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N35" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O35" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P35" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K36" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L36" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M36" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N36" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O36" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P36" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,19 +10747,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M37" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N37" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O37" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P37" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K38" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L38" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M38" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N38" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O38" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P38" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K39" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L39" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M39" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N39" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O39" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P39" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,19 +10984,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M40" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N40" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O40" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P40" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K41" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L41" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M41" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N41" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O41" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P41" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K42" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L42" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M42" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N42" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O42" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P42" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,19 +11221,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M43" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N43" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O43" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P43" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>145.8327464505409</v>
+        <v>145.6303909672899</v>
       </c>
       <c r="K44" t="n">
-        <v>167.3144551584022</v>
+        <v>167.0111767442566</v>
       </c>
       <c r="L44" t="n">
-        <v>170.2938696529568</v>
+        <v>169.9176259624974</v>
       </c>
       <c r="M44" t="n">
-        <v>157.4954113531601</v>
+        <v>157.076767753126</v>
       </c>
       <c r="N44" t="n">
-        <v>155.3834392613658</v>
+        <v>154.9580215702047</v>
       </c>
       <c r="O44" t="n">
-        <v>160.1941363949306</v>
+        <v>159.7924265325927</v>
       </c>
       <c r="P44" t="n">
-        <v>171.5714850078676</v>
+        <v>171.2286349342484</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.502379967731</v>
+        <v>177.2449138407846</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>105.8649109507975</v>
+        <v>105.744389411247</v>
       </c>
       <c r="K45" t="n">
-        <v>101.9957273309275</v>
+        <v>101.7897368234474</v>
       </c>
       <c r="L45" t="n">
-        <v>90.35539683970862</v>
+        <v>90.07841718159411</v>
       </c>
       <c r="M45" t="n">
-        <v>85.88809423000006</v>
+        <v>85.56487203326689</v>
       </c>
       <c r="N45" t="n">
-        <v>73.60710973268434</v>
+        <v>73.2753328061813</v>
       </c>
       <c r="O45" t="n">
-        <v>89.78036266371197</v>
+        <v>89.47685159384554</v>
       </c>
       <c r="P45" t="n">
-        <v>91.58500595490335</v>
+        <v>91.34141156332694</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.6455817925041</v>
+        <v>111.4827453927513</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,19 +11458,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>107.2159712812904</v>
+        <v>107.0569706554708</v>
       </c>
       <c r="M46" t="n">
-        <v>109.753013963864</v>
+        <v>109.58537009747</v>
       </c>
       <c r="N46" t="n">
-        <v>99.20643774735851</v>
+        <v>99.04278007740484</v>
       </c>
       <c r="O46" t="n">
-        <v>112.1514739208908</v>
+        <v>112.0003095739271</v>
       </c>
       <c r="P46" t="n">
-        <v>115.2194770025959</v>
+        <v>115.0901297893206</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.887848835465</v>
+        <v>414.8854646414916</v>
       </c>
       <c r="H11" t="n">
-        <v>335.2258234250963</v>
+        <v>335.2014062985661</v>
       </c>
       <c r="I11" t="n">
-        <v>194.4808937474265</v>
+        <v>194.3889771092665</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>123.8073669168263</v>
+        <v>123.6576007921439</v>
       </c>
       <c r="S11" t="n">
-        <v>199.5657937982642</v>
+        <v>199.5114639780951</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2796743688757</v>
+        <v>221.2692375597571</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3124618134629</v>
+        <v>251.312271077945</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1215321493664</v>
+        <v>137.1202564931287</v>
       </c>
       <c r="H12" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I12" t="n">
-        <v>81.75372776949811</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.37529092466649</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S12" t="n">
-        <v>167.5598968335298</v>
+        <v>167.5362020784118</v>
       </c>
       <c r="T12" t="n">
-        <v>199.2699733100723</v>
+        <v>199.2648315202368</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9267778037482</v>
+        <v>225.9266938789957</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8048745798117</v>
+        <v>167.803805112474</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5725318391047</v>
+        <v>160.5630233022298</v>
       </c>
       <c r="I13" t="n">
-        <v>149.8537966748535</v>
+        <v>149.8216348752809</v>
       </c>
       <c r="J13" t="n">
-        <v>80.20157226632458</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6475002703408705</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.57830583243795</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R13" t="n">
-        <v>168.9254437845474</v>
+        <v>168.8773566440738</v>
       </c>
       <c r="S13" t="n">
-        <v>220.773299303641</v>
+        <v>220.7546614046746</v>
       </c>
       <c r="T13" t="n">
-        <v>227.1504144649713</v>
+        <v>227.1458449227103</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3088781867465</v>
+        <v>286.3088198521644</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.0863413931397</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>364.6253915006667</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.0355413503421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.2828698019209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.2285454713706</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2403485651241</v>
+        <v>414.8854646414916</v>
       </c>
       <c r="H14" t="n">
-        <v>334.5783231547555</v>
+        <v>335.2014062985661</v>
       </c>
       <c r="I14" t="n">
-        <v>193.8333934770857</v>
+        <v>194.3889771092665</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1598666464854</v>
+        <v>123.6576007921439</v>
       </c>
       <c r="S14" t="n">
-        <v>198.9182935279233</v>
+        <v>199.5114639780951</v>
       </c>
       <c r="T14" t="n">
-        <v>220.6321740985348</v>
+        <v>221.2692375597571</v>
       </c>
       <c r="U14" t="n">
-        <v>250.664961543122</v>
+        <v>251.312271077945</v>
       </c>
       <c r="V14" t="n">
-        <v>327.104758199794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>348.5934684470722</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.0836004081282</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>385.5904383857127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.8856833795265</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.0609987179749</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>146.7975652942979</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>156.9975801850601</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>144.421712123043</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.4740318790255</v>
+        <v>137.1202564931287</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4440360692918</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I15" t="n">
-        <v>81.10622749915723</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>85.72779065432562</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S15" t="n">
-        <v>166.9123965631889</v>
+        <v>167.5362020784118</v>
       </c>
       <c r="T15" t="n">
-        <v>198.6224730397315</v>
+        <v>199.2648315202368</v>
       </c>
       <c r="U15" t="n">
-        <v>225.2792775334073</v>
+        <v>225.9266938789957</v>
       </c>
       <c r="V15" t="n">
-        <v>232.1530868790844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.0474828905787</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.1254849331366</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.0351955069635</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23650,34 +23650,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.1844799115964</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>166.5993208282869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>147.9679727478715</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.7864623762283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>144.7735477525904</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1573743094708</v>
+        <v>167.803805112474</v>
       </c>
       <c r="H16" t="n">
-        <v>159.9250315687638</v>
+        <v>160.5630233022298</v>
       </c>
       <c r="I16" t="n">
-        <v>149.2062964045126</v>
+        <v>149.8216348752809</v>
       </c>
       <c r="J16" t="n">
-        <v>79.5540719959837</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.93080556209708</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R16" t="n">
-        <v>168.2779435142065</v>
+        <v>168.8773566440738</v>
       </c>
       <c r="S16" t="n">
-        <v>220.1257990333001</v>
+        <v>220.7546614046746</v>
       </c>
       <c r="T16" t="n">
-        <v>226.5029141946304</v>
+        <v>227.1458449227103</v>
       </c>
       <c r="U16" t="n">
-        <v>285.6613779164056</v>
+        <v>286.3088198521644</v>
       </c>
       <c r="V16" t="n">
-        <v>251.4901430534871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>285.8754980662501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.0621551186963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.9371530817539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.0863413931397</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>364.6253915006667</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.0355413503421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.2828698019209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.2285454713706</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2403485651241</v>
+        <v>414.8854646414916</v>
       </c>
       <c r="H17" t="n">
-        <v>334.5783231547555</v>
+        <v>335.2014062985661</v>
       </c>
       <c r="I17" t="n">
-        <v>193.8333934770857</v>
+        <v>194.3889771092665</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>123.1598666464854</v>
+        <v>123.6576007921439</v>
       </c>
       <c r="S17" t="n">
-        <v>198.9182935279233</v>
+        <v>199.5114639780951</v>
       </c>
       <c r="T17" t="n">
-        <v>220.6321740985348</v>
+        <v>221.2692375597571</v>
       </c>
       <c r="U17" t="n">
-        <v>250.664961543122</v>
+        <v>251.312271077945</v>
       </c>
       <c r="V17" t="n">
-        <v>327.104758199794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>348.5934684470722</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.0836004081282</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>385.5904383857127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.8856833795265</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.0609987179749</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>146.7975652942979</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>156.9975801850601</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>144.421712123043</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.4740318790255</v>
+        <v>137.1202564931287</v>
       </c>
       <c r="H18" t="n">
-        <v>109.4440360692918</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I18" t="n">
-        <v>81.10622749915724</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>85.72779065432562</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S18" t="n">
-        <v>166.9123965631889</v>
+        <v>167.5362020784118</v>
       </c>
       <c r="T18" t="n">
-        <v>198.6224730397315</v>
+        <v>199.2648315202368</v>
       </c>
       <c r="U18" t="n">
-        <v>225.2792775334073</v>
+        <v>225.9266938789957</v>
       </c>
       <c r="V18" t="n">
-        <v>232.1530868790844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.0474828905787</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.1254849331366</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.0351955069635</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,34 +23887,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.1844799115964</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>166.5993208282869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>147.9679727478715</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.7864623762283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>144.7735477525904</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.1573743094708</v>
+        <v>167.803805112474</v>
       </c>
       <c r="H19" t="n">
-        <v>159.9250315687638</v>
+        <v>160.5630233022298</v>
       </c>
       <c r="I19" t="n">
-        <v>149.2062964045126</v>
+        <v>149.8216348752809</v>
       </c>
       <c r="J19" t="n">
-        <v>79.5540719959837</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.93080556209708</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R19" t="n">
-        <v>168.2779435142065</v>
+        <v>168.8773566440738</v>
       </c>
       <c r="S19" t="n">
-        <v>220.1257990333001</v>
+        <v>220.7546614046746</v>
       </c>
       <c r="T19" t="n">
-        <v>226.5029141946304</v>
+        <v>227.1458449227103</v>
       </c>
       <c r="U19" t="n">
-        <v>285.6613779164056</v>
+        <v>286.3088198521644</v>
       </c>
       <c r="V19" t="n">
-        <v>251.4901430534871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>285.8754980662501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.0621551186963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.9371530817539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.0863413931397</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>364.6253915006667</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.0355413503421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.2828698019209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.2285454713706</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2403485651241</v>
+        <v>414.8854646414916</v>
       </c>
       <c r="H20" t="n">
-        <v>334.5783231547555</v>
+        <v>335.2014062985661</v>
       </c>
       <c r="I20" t="n">
-        <v>193.8333934770857</v>
+        <v>194.3889771092665</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>123.1598666464854</v>
+        <v>123.6576007921439</v>
       </c>
       <c r="S20" t="n">
-        <v>198.9182935279233</v>
+        <v>199.5114639780951</v>
       </c>
       <c r="T20" t="n">
-        <v>220.6321740985348</v>
+        <v>221.2692375597571</v>
       </c>
       <c r="U20" t="n">
-        <v>250.664961543122</v>
+        <v>251.312271077945</v>
       </c>
       <c r="V20" t="n">
-        <v>327.104758199794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>348.5934684470722</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.0836004081282</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>385.5904383857127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.8856833795265</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.0609987179749</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>146.7975652942979</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>156.9975801850601</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>144.421712123043</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.4740318790255</v>
+        <v>137.1202564931287</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4440360692918</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I21" t="n">
-        <v>81.10622749915724</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>85.72779065432562</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S21" t="n">
-        <v>166.9123965631889</v>
+        <v>167.5362020784118</v>
       </c>
       <c r="T21" t="n">
-        <v>198.6224730397315</v>
+        <v>199.2648315202368</v>
       </c>
       <c r="U21" t="n">
-        <v>225.2792775334073</v>
+        <v>225.9266938789957</v>
       </c>
       <c r="V21" t="n">
-        <v>232.1530868790844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.0474828905787</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.1254849331366</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.0351955069635</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,34 +24124,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.1844799115964</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>166.5993208282869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>147.9679727478715</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>145.7864623762283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>144.7735477525904</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.1573743094708</v>
+        <v>167.803805112474</v>
       </c>
       <c r="H22" t="n">
-        <v>159.9250315687638</v>
+        <v>160.5630233022298</v>
       </c>
       <c r="I22" t="n">
-        <v>149.2062964045126</v>
+        <v>149.8216348752809</v>
       </c>
       <c r="J22" t="n">
-        <v>79.5540719959837</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.93080556209708</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R22" t="n">
-        <v>168.2779435142065</v>
+        <v>168.8773566440738</v>
       </c>
       <c r="S22" t="n">
-        <v>220.1257990333001</v>
+        <v>220.7546614046746</v>
       </c>
       <c r="T22" t="n">
-        <v>226.5029141946304</v>
+        <v>227.1458449227103</v>
       </c>
       <c r="U22" t="n">
-        <v>285.6613779164056</v>
+        <v>286.3088198521644</v>
       </c>
       <c r="V22" t="n">
-        <v>251.4901430534871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>285.8754980662501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.0621551186963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.9371530817539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.0863413931397</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>364.6253915006667</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.0355413503421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.2828698019209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.2285454713706</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2403485651241</v>
+        <v>414.8854646414916</v>
       </c>
       <c r="H23" t="n">
-        <v>334.5783231547555</v>
+        <v>335.2014062985661</v>
       </c>
       <c r="I23" t="n">
-        <v>193.8333934770857</v>
+        <v>194.3889771092665</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>123.1598666464854</v>
+        <v>123.6576007921439</v>
       </c>
       <c r="S23" t="n">
-        <v>198.9182935279233</v>
+        <v>199.5114639780951</v>
       </c>
       <c r="T23" t="n">
-        <v>220.6321740985348</v>
+        <v>221.2692375597571</v>
       </c>
       <c r="U23" t="n">
-        <v>250.664961543122</v>
+        <v>251.312271077945</v>
       </c>
       <c r="V23" t="n">
-        <v>327.104758199794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>348.5934684470722</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.0836004081282</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>385.5904383857127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.8856833795265</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.0609987179749</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>146.7975652942979</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>156.9975801850601</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>144.421712123043</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.4740318790255</v>
+        <v>137.1202564931287</v>
       </c>
       <c r="H24" t="n">
-        <v>109.4440360692918</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I24" t="n">
-        <v>81.10622749915724</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>85.72779065432562</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S24" t="n">
-        <v>166.9123965631889</v>
+        <v>167.5362020784118</v>
       </c>
       <c r="T24" t="n">
-        <v>198.6224730397315</v>
+        <v>199.2648315202368</v>
       </c>
       <c r="U24" t="n">
-        <v>225.2792775334073</v>
+        <v>225.9266938789957</v>
       </c>
       <c r="V24" t="n">
-        <v>232.1530868790844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.0474828905787</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.1254849331366</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.0351955069635</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,34 +24361,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.1844799115964</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>166.5993208282869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>147.9679727478715</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.7864623762283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>144.7735477525904</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.1573743094708</v>
+        <v>167.803805112474</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9250315687638</v>
+        <v>160.5630233022298</v>
       </c>
       <c r="I25" t="n">
-        <v>149.2062964045126</v>
+        <v>149.8216348752809</v>
       </c>
       <c r="J25" t="n">
-        <v>79.5540719959837</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.93080556209708</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R25" t="n">
-        <v>168.2779435142065</v>
+        <v>168.8773566440738</v>
       </c>
       <c r="S25" t="n">
-        <v>220.1257990333001</v>
+        <v>220.7546614046746</v>
       </c>
       <c r="T25" t="n">
-        <v>226.5029141946304</v>
+        <v>227.1458449227103</v>
       </c>
       <c r="U25" t="n">
-        <v>285.6613779164056</v>
+        <v>286.3088198521644</v>
       </c>
       <c r="V25" t="n">
-        <v>251.4901430534871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>285.8754980662501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.0621551186963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.9371530817539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.0863413931397</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>364.6253915006667</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.0355413503421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.2828698019209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.2285454713706</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2403485651241</v>
+        <v>414.8854646414916</v>
       </c>
       <c r="H26" t="n">
-        <v>334.5783231547555</v>
+        <v>335.2014062985661</v>
       </c>
       <c r="I26" t="n">
-        <v>193.8333934770857</v>
+        <v>194.3889771092665</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>123.1598666464854</v>
+        <v>123.6576007921439</v>
       </c>
       <c r="S26" t="n">
-        <v>198.9182935279233</v>
+        <v>199.5114639780951</v>
       </c>
       <c r="T26" t="n">
-        <v>220.6321740985348</v>
+        <v>221.2692375597571</v>
       </c>
       <c r="U26" t="n">
-        <v>250.664961543122</v>
+        <v>251.312271077945</v>
       </c>
       <c r="V26" t="n">
-        <v>327.104758199794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>348.5934684470722</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.0836004081282</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>385.5904383857127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8856833795265</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.0609987179749</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>146.7975652942979</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>156.9975801850601</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>144.421712123043</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.4740318790255</v>
+        <v>137.1202564931287</v>
       </c>
       <c r="H27" t="n">
-        <v>109.4440360692918</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I27" t="n">
-        <v>81.10622749915724</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>85.72779065432562</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S27" t="n">
-        <v>166.9123965631889</v>
+        <v>167.5362020784118</v>
       </c>
       <c r="T27" t="n">
-        <v>198.6224730397315</v>
+        <v>199.2648315202368</v>
       </c>
       <c r="U27" t="n">
-        <v>225.2792775334073</v>
+        <v>225.9266938789957</v>
       </c>
       <c r="V27" t="n">
-        <v>232.1530868790844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.0474828905787</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.1254849331366</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.0351955069635</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,34 +24598,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.1844799115964</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>166.5993208282869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>147.9679727478715</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.7864623762283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>144.7735477525904</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1573743094708</v>
+        <v>167.803805112474</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9250315687638</v>
+        <v>160.5630233022298</v>
       </c>
       <c r="I28" t="n">
-        <v>149.2062964045126</v>
+        <v>149.8216348752809</v>
       </c>
       <c r="J28" t="n">
-        <v>79.5540719959837</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.93080556209708</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R28" t="n">
-        <v>168.2779435142065</v>
+        <v>168.8773566440738</v>
       </c>
       <c r="S28" t="n">
-        <v>220.1257990333001</v>
+        <v>220.7546614046746</v>
       </c>
       <c r="T28" t="n">
-        <v>226.5029141946304</v>
+        <v>227.1458449227103</v>
       </c>
       <c r="U28" t="n">
-        <v>285.6613779164056</v>
+        <v>286.3088198521644</v>
       </c>
       <c r="V28" t="n">
-        <v>251.4901430534871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>285.8754980662501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.0621551186963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.9371530817539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>272.6423053238479</v>
+        <v>272.6546254775126</v>
       </c>
       <c r="C29" t="n">
-        <v>255.1813554313749</v>
+        <v>255.1936755850396</v>
       </c>
       <c r="D29" t="n">
-        <v>244.5915052810503</v>
+        <v>244.603825434715</v>
       </c>
       <c r="E29" t="n">
-        <v>271.8388337326292</v>
+        <v>271.8511538862938</v>
       </c>
       <c r="F29" t="n">
-        <v>296.7845094020788</v>
+        <v>296.7968295557434</v>
       </c>
       <c r="G29" t="n">
-        <v>304.7963124958324</v>
+        <v>304.8062484555236</v>
       </c>
       <c r="H29" t="n">
-        <v>225.1342870854637</v>
+        <v>225.1221901125981</v>
       </c>
       <c r="I29" t="n">
-        <v>84.38935740779394</v>
+        <v>84.30976092329854</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>13.71583057719367</v>
+        <v>13.57838460617588</v>
       </c>
       <c r="S29" t="n">
-        <v>89.4742574586316</v>
+        <v>89.43224779212709</v>
       </c>
       <c r="T29" t="n">
-        <v>111.1881380292431</v>
+        <v>111.1900213737891</v>
       </c>
       <c r="U29" t="n">
-        <v>141.2209254738303</v>
+        <v>141.233054891977</v>
       </c>
       <c r="V29" t="n">
-        <v>217.6607221305023</v>
+        <v>217.6730422841669</v>
       </c>
       <c r="W29" t="n">
-        <v>239.1494323777804</v>
+        <v>239.161752531445</v>
       </c>
       <c r="X29" t="n">
-        <v>259.6395643388364</v>
+        <v>259.651884492501</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.146402316421</v>
+        <v>276.1587224700856</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.44164731023473</v>
+        <v>56.45396746389936</v>
       </c>
       <c r="C30" t="n">
-        <v>62.61696264868313</v>
+        <v>62.62928280234776</v>
       </c>
       <c r="D30" t="n">
-        <v>37.35352922500614</v>
+        <v>37.36584937867077</v>
       </c>
       <c r="E30" t="n">
-        <v>47.55354411576833</v>
+        <v>47.56586426943296</v>
       </c>
       <c r="F30" t="n">
-        <v>34.97767605375127</v>
+        <v>34.9899962074159</v>
       </c>
       <c r="G30" t="n">
-        <v>27.02999580973381</v>
+        <v>27.04104030716069</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.46836049389714</v>
+        <v>57.4569858924438</v>
       </c>
       <c r="T30" t="n">
-        <v>89.17843697043973</v>
+        <v>89.18561533426885</v>
       </c>
       <c r="U30" t="n">
-        <v>115.8352414641156</v>
+        <v>115.8474776930278</v>
       </c>
       <c r="V30" t="n">
-        <v>122.7090508097927</v>
+        <v>122.7213709634573</v>
       </c>
       <c r="W30" t="n">
-        <v>141.603446821287</v>
+        <v>141.6157669749516</v>
       </c>
       <c r="X30" t="n">
-        <v>95.68144886384486</v>
+        <v>95.6937690175095</v>
       </c>
       <c r="Y30" t="n">
-        <v>95.59115943767175</v>
+        <v>95.60347959133638</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.74044384230469</v>
+        <v>69.75276399596932</v>
       </c>
       <c r="C31" t="n">
-        <v>57.15528475899522</v>
+        <v>57.16760491265985</v>
       </c>
       <c r="D31" t="n">
-        <v>38.52393667857974</v>
+        <v>38.53625683224438</v>
       </c>
       <c r="E31" t="n">
-        <v>36.34242630693656</v>
+        <v>36.35474646060119</v>
       </c>
       <c r="F31" t="n">
-        <v>35.32951168329863</v>
+        <v>35.34183183696327</v>
       </c>
       <c r="G31" t="n">
-        <v>57.71333824017907</v>
+        <v>57.72458892650604</v>
       </c>
       <c r="H31" t="n">
-        <v>50.48099549947206</v>
+        <v>50.48380711626182</v>
       </c>
       <c r="I31" t="n">
-        <v>39.76226033522091</v>
+        <v>39.74241868931287</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>58.83390744491476</v>
+        <v>58.79814045810587</v>
       </c>
       <c r="S31" t="n">
-        <v>110.6817629640083</v>
+        <v>110.6754452187066</v>
       </c>
       <c r="T31" t="n">
-        <v>117.0588781253387</v>
+        <v>117.0666287367424</v>
       </c>
       <c r="U31" t="n">
-        <v>176.2173418471139</v>
+        <v>176.2296036661965</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0461069841954</v>
+        <v>142.05842713786</v>
       </c>
       <c r="W31" t="n">
-        <v>176.4314619969584</v>
+        <v>176.443782150623</v>
       </c>
       <c r="X31" t="n">
-        <v>115.6181190494045</v>
+        <v>115.6304392030692</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.4931170124622</v>
+        <v>108.5054371661268</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>272.6423053238479</v>
+        <v>272.6546254775126</v>
       </c>
       <c r="C32" t="n">
-        <v>255.1813554313749</v>
+        <v>255.1936755850396</v>
       </c>
       <c r="D32" t="n">
-        <v>244.5915052810503</v>
+        <v>244.603825434715</v>
       </c>
       <c r="E32" t="n">
-        <v>271.8388337326292</v>
+        <v>271.8511538862938</v>
       </c>
       <c r="F32" t="n">
-        <v>296.7845094020788</v>
+        <v>296.7968295557434</v>
       </c>
       <c r="G32" t="n">
-        <v>304.7963124958324</v>
+        <v>304.8062484555236</v>
       </c>
       <c r="H32" t="n">
-        <v>225.1342870854637</v>
+        <v>225.1221901125981</v>
       </c>
       <c r="I32" t="n">
-        <v>84.38935740779394</v>
+        <v>84.30976092329854</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.71583057719367</v>
+        <v>13.57838460617588</v>
       </c>
       <c r="S32" t="n">
-        <v>89.4742574586316</v>
+        <v>89.43224779212709</v>
       </c>
       <c r="T32" t="n">
-        <v>111.1881380292431</v>
+        <v>111.1900213737891</v>
       </c>
       <c r="U32" t="n">
-        <v>141.2209254738303</v>
+        <v>141.233054891977</v>
       </c>
       <c r="V32" t="n">
-        <v>217.6607221305023</v>
+        <v>217.6730422841669</v>
       </c>
       <c r="W32" t="n">
-        <v>239.1494323777804</v>
+        <v>239.161752531445</v>
       </c>
       <c r="X32" t="n">
-        <v>259.6395643388364</v>
+        <v>259.651884492501</v>
       </c>
       <c r="Y32" t="n">
-        <v>276.146402316421</v>
+        <v>276.1587224700856</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.44164731023473</v>
+        <v>56.45396746389936</v>
       </c>
       <c r="C33" t="n">
-        <v>62.61696264868313</v>
+        <v>62.62928280234776</v>
       </c>
       <c r="D33" t="n">
-        <v>37.35352922500614</v>
+        <v>37.36584937867077</v>
       </c>
       <c r="E33" t="n">
-        <v>47.55354411576833</v>
+        <v>47.56586426943296</v>
       </c>
       <c r="F33" t="n">
-        <v>34.97767605375127</v>
+        <v>34.9899962074159</v>
       </c>
       <c r="G33" t="n">
-        <v>27.02999580973381</v>
+        <v>27.04104030716069</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.46836049389714</v>
+        <v>57.4569858924438</v>
       </c>
       <c r="T33" t="n">
-        <v>89.17843697043973</v>
+        <v>89.18561533426885</v>
       </c>
       <c r="U33" t="n">
-        <v>115.8352414641156</v>
+        <v>115.8474776930278</v>
       </c>
       <c r="V33" t="n">
-        <v>122.7090508097927</v>
+        <v>122.7213709634573</v>
       </c>
       <c r="W33" t="n">
-        <v>141.603446821287</v>
+        <v>141.6157669749516</v>
       </c>
       <c r="X33" t="n">
-        <v>95.68144886384486</v>
+        <v>95.6937690175095</v>
       </c>
       <c r="Y33" t="n">
-        <v>95.59115943767175</v>
+        <v>95.60347959133638</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.74044384230469</v>
+        <v>69.75276399596932</v>
       </c>
       <c r="C34" t="n">
-        <v>57.15528475899522</v>
+        <v>57.16760491265985</v>
       </c>
       <c r="D34" t="n">
-        <v>38.52393667857974</v>
+        <v>38.53625683224438</v>
       </c>
       <c r="E34" t="n">
-        <v>36.34242630693656</v>
+        <v>36.35474646060119</v>
       </c>
       <c r="F34" t="n">
-        <v>35.32951168329863</v>
+        <v>35.34183183696327</v>
       </c>
       <c r="G34" t="n">
-        <v>57.71333824017907</v>
+        <v>57.72458892650604</v>
       </c>
       <c r="H34" t="n">
-        <v>50.48099549947206</v>
+        <v>50.48380711626182</v>
       </c>
       <c r="I34" t="n">
-        <v>39.76226033522091</v>
+        <v>39.74241868931287</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>58.83390744491476</v>
+        <v>58.79814045810587</v>
       </c>
       <c r="S34" t="n">
-        <v>110.6817629640083</v>
+        <v>110.6754452187066</v>
       </c>
       <c r="T34" t="n">
-        <v>117.0588781253387</v>
+        <v>117.0666287367424</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2173418471139</v>
+        <v>176.2296036661965</v>
       </c>
       <c r="V34" t="n">
-        <v>142.0461069841954</v>
+        <v>142.05842713786</v>
       </c>
       <c r="W34" t="n">
-        <v>176.4314619969584</v>
+        <v>176.443782150623</v>
       </c>
       <c r="X34" t="n">
-        <v>115.6181190494045</v>
+        <v>115.6304392030692</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.4931170124622</v>
+        <v>108.5054371661268</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.6423053238479</v>
+        <v>272.6546254775126</v>
       </c>
       <c r="C35" t="n">
-        <v>255.1813554313749</v>
+        <v>255.1936755850396</v>
       </c>
       <c r="D35" t="n">
-        <v>244.5915052810503</v>
+        <v>244.603825434715</v>
       </c>
       <c r="E35" t="n">
-        <v>271.8388337326292</v>
+        <v>271.8511538862938</v>
       </c>
       <c r="F35" t="n">
-        <v>296.7845094020788</v>
+        <v>296.7968295557434</v>
       </c>
       <c r="G35" t="n">
-        <v>304.7963124958324</v>
+        <v>304.8062484555236</v>
       </c>
       <c r="H35" t="n">
-        <v>225.1342870854637</v>
+        <v>225.1221901125981</v>
       </c>
       <c r="I35" t="n">
-        <v>84.38935740779394</v>
+        <v>84.30976092329854</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>13.71583057719367</v>
+        <v>13.57838460617588</v>
       </c>
       <c r="S35" t="n">
-        <v>89.4742574586316</v>
+        <v>89.43224779212709</v>
       </c>
       <c r="T35" t="n">
-        <v>111.1881380292431</v>
+        <v>111.1900213737891</v>
       </c>
       <c r="U35" t="n">
-        <v>141.2209254738303</v>
+        <v>141.233054891977</v>
       </c>
       <c r="V35" t="n">
-        <v>217.6607221305023</v>
+        <v>217.6730422841669</v>
       </c>
       <c r="W35" t="n">
-        <v>239.1494323777804</v>
+        <v>239.161752531445</v>
       </c>
       <c r="X35" t="n">
-        <v>259.6395643388364</v>
+        <v>259.651884492501</v>
       </c>
       <c r="Y35" t="n">
-        <v>276.146402316421</v>
+        <v>276.1587224700856</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.44164731023473</v>
+        <v>56.45396746389936</v>
       </c>
       <c r="C36" t="n">
-        <v>62.61696264868313</v>
+        <v>62.62928280234776</v>
       </c>
       <c r="D36" t="n">
-        <v>37.35352922500614</v>
+        <v>37.36584937867077</v>
       </c>
       <c r="E36" t="n">
-        <v>47.55354411576833</v>
+        <v>47.56586426943296</v>
       </c>
       <c r="F36" t="n">
-        <v>34.97767605375127</v>
+        <v>34.9899962074159</v>
       </c>
       <c r="G36" t="n">
-        <v>27.02999580973381</v>
+        <v>27.04104030716069</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.46836049389714</v>
+        <v>57.4569858924438</v>
       </c>
       <c r="T36" t="n">
-        <v>89.17843697043973</v>
+        <v>89.18561533426885</v>
       </c>
       <c r="U36" t="n">
-        <v>115.8352414641156</v>
+        <v>115.8474776930278</v>
       </c>
       <c r="V36" t="n">
-        <v>122.7090508097927</v>
+        <v>122.7213709634573</v>
       </c>
       <c r="W36" t="n">
-        <v>141.603446821287</v>
+        <v>141.6157669749516</v>
       </c>
       <c r="X36" t="n">
-        <v>95.68144886384486</v>
+        <v>95.6937690175095</v>
       </c>
       <c r="Y36" t="n">
-        <v>95.59115943767175</v>
+        <v>95.60347959133638</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.74044384230469</v>
+        <v>69.75276399596932</v>
       </c>
       <c r="C37" t="n">
-        <v>57.15528475899522</v>
+        <v>57.16760491265985</v>
       </c>
       <c r="D37" t="n">
-        <v>38.52393667857974</v>
+        <v>38.53625683224438</v>
       </c>
       <c r="E37" t="n">
-        <v>36.34242630693656</v>
+        <v>36.35474646060119</v>
       </c>
       <c r="F37" t="n">
-        <v>35.32951168329863</v>
+        <v>35.34183183696327</v>
       </c>
       <c r="G37" t="n">
-        <v>57.71333824017907</v>
+        <v>57.72458892650604</v>
       </c>
       <c r="H37" t="n">
-        <v>50.48099549947206</v>
+        <v>50.48380711626182</v>
       </c>
       <c r="I37" t="n">
-        <v>39.76226033522091</v>
+        <v>39.74241868931287</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>58.83390744491476</v>
+        <v>58.79814045810587</v>
       </c>
       <c r="S37" t="n">
-        <v>110.6817629640083</v>
+        <v>110.6754452187066</v>
       </c>
       <c r="T37" t="n">
-        <v>117.0588781253387</v>
+        <v>117.0666287367424</v>
       </c>
       <c r="U37" t="n">
-        <v>176.2173418471139</v>
+        <v>176.2296036661965</v>
       </c>
       <c r="V37" t="n">
-        <v>142.0461069841954</v>
+        <v>142.05842713786</v>
       </c>
       <c r="W37" t="n">
-        <v>176.4314619969584</v>
+        <v>176.443782150623</v>
       </c>
       <c r="X37" t="n">
-        <v>115.6181190494045</v>
+        <v>115.6304392030692</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.4931170124622</v>
+        <v>108.5054371661268</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.6423053238479</v>
+        <v>272.6546254775126</v>
       </c>
       <c r="C38" t="n">
-        <v>255.1813554313749</v>
+        <v>255.1936755850396</v>
       </c>
       <c r="D38" t="n">
-        <v>244.5915052810503</v>
+        <v>244.603825434715</v>
       </c>
       <c r="E38" t="n">
-        <v>271.8388337326292</v>
+        <v>271.8511538862938</v>
       </c>
       <c r="F38" t="n">
-        <v>296.7845094020788</v>
+        <v>296.7968295557434</v>
       </c>
       <c r="G38" t="n">
-        <v>304.7963124958324</v>
+        <v>304.8062484555236</v>
       </c>
       <c r="H38" t="n">
-        <v>225.1342870854637</v>
+        <v>225.1221901125981</v>
       </c>
       <c r="I38" t="n">
-        <v>84.38935740779394</v>
+        <v>84.30976092329854</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>13.71583057719367</v>
+        <v>13.57838460617588</v>
       </c>
       <c r="S38" t="n">
-        <v>89.4742574586316</v>
+        <v>89.43224779212709</v>
       </c>
       <c r="T38" t="n">
-        <v>111.1881380292431</v>
+        <v>111.1900213737891</v>
       </c>
       <c r="U38" t="n">
-        <v>141.2209254738303</v>
+        <v>141.233054891977</v>
       </c>
       <c r="V38" t="n">
-        <v>217.6607221305023</v>
+        <v>217.6730422841669</v>
       </c>
       <c r="W38" t="n">
-        <v>239.1494323777804</v>
+        <v>239.161752531445</v>
       </c>
       <c r="X38" t="n">
-        <v>259.6395643388364</v>
+        <v>259.651884492501</v>
       </c>
       <c r="Y38" t="n">
-        <v>276.146402316421</v>
+        <v>276.1587224700856</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25467,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56.44164731023473</v>
+        <v>56.45396746389936</v>
       </c>
       <c r="C39" t="n">
-        <v>62.61696264868313</v>
+        <v>62.62928280234776</v>
       </c>
       <c r="D39" t="n">
-        <v>37.35352922500614</v>
+        <v>37.36584937867077</v>
       </c>
       <c r="E39" t="n">
-        <v>47.55354411576833</v>
+        <v>47.56586426943296</v>
       </c>
       <c r="F39" t="n">
-        <v>34.97767605375127</v>
+        <v>34.9899962074159</v>
       </c>
       <c r="G39" t="n">
-        <v>27.02999580973381</v>
+        <v>27.04104030716069</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.46836049389714</v>
+        <v>57.4569858924438</v>
       </c>
       <c r="T39" t="n">
-        <v>89.17843697043973</v>
+        <v>89.18561533426885</v>
       </c>
       <c r="U39" t="n">
-        <v>115.8352414641156</v>
+        <v>115.8474776930278</v>
       </c>
       <c r="V39" t="n">
-        <v>122.7090508097927</v>
+        <v>122.7213709634573</v>
       </c>
       <c r="W39" t="n">
-        <v>141.603446821287</v>
+        <v>141.6157669749516</v>
       </c>
       <c r="X39" t="n">
-        <v>95.68144886384486</v>
+        <v>95.6937690175095</v>
       </c>
       <c r="Y39" t="n">
-        <v>95.59115943767175</v>
+        <v>95.60347959133638</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.74044384230469</v>
+        <v>69.75276399596932</v>
       </c>
       <c r="C40" t="n">
-        <v>57.15528475899522</v>
+        <v>57.16760491265985</v>
       </c>
       <c r="D40" t="n">
-        <v>38.52393667857974</v>
+        <v>38.53625683224438</v>
       </c>
       <c r="E40" t="n">
-        <v>36.34242630693656</v>
+        <v>36.35474646060119</v>
       </c>
       <c r="F40" t="n">
-        <v>35.32951168329863</v>
+        <v>35.34183183696327</v>
       </c>
       <c r="G40" t="n">
-        <v>57.71333824017907</v>
+        <v>57.72458892650604</v>
       </c>
       <c r="H40" t="n">
-        <v>50.48099549947206</v>
+        <v>50.48380711626182</v>
       </c>
       <c r="I40" t="n">
-        <v>39.76226033522091</v>
+        <v>39.74241868931287</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>58.83390744491476</v>
+        <v>58.79814045810587</v>
       </c>
       <c r="S40" t="n">
-        <v>110.6817629640083</v>
+        <v>110.6754452187066</v>
       </c>
       <c r="T40" t="n">
-        <v>117.0588781253387</v>
+        <v>117.0666287367424</v>
       </c>
       <c r="U40" t="n">
-        <v>176.2173418471139</v>
+        <v>176.2296036661965</v>
       </c>
       <c r="V40" t="n">
-        <v>142.0461069841954</v>
+        <v>142.05842713786</v>
       </c>
       <c r="W40" t="n">
-        <v>176.4314619969584</v>
+        <v>176.443782150623</v>
       </c>
       <c r="X40" t="n">
-        <v>115.6181190494045</v>
+        <v>115.6304392030692</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.4931170124622</v>
+        <v>108.5054371661268</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>272.6423053238479</v>
+        <v>272.6546254775126</v>
       </c>
       <c r="C41" t="n">
-        <v>255.1813554313749</v>
+        <v>255.1936755850396</v>
       </c>
       <c r="D41" t="n">
-        <v>244.5915052810503</v>
+        <v>244.603825434715</v>
       </c>
       <c r="E41" t="n">
-        <v>271.8388337326292</v>
+        <v>271.8511538862938</v>
       </c>
       <c r="F41" t="n">
-        <v>296.7845094020788</v>
+        <v>296.7968295557434</v>
       </c>
       <c r="G41" t="n">
-        <v>304.7963124958324</v>
+        <v>304.8062484555236</v>
       </c>
       <c r="H41" t="n">
-        <v>225.1342870854637</v>
+        <v>225.1221901125981</v>
       </c>
       <c r="I41" t="n">
-        <v>84.38935740779394</v>
+        <v>84.30976092329854</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>13.71583057719367</v>
+        <v>13.57838460617588</v>
       </c>
       <c r="S41" t="n">
-        <v>89.4742574586316</v>
+        <v>89.43224779212709</v>
       </c>
       <c r="T41" t="n">
-        <v>111.1881380292431</v>
+        <v>111.1900213737891</v>
       </c>
       <c r="U41" t="n">
-        <v>141.2209254738303</v>
+        <v>141.233054891977</v>
       </c>
       <c r="V41" t="n">
-        <v>217.6607221305023</v>
+        <v>217.6730422841669</v>
       </c>
       <c r="W41" t="n">
-        <v>239.1494323777804</v>
+        <v>239.161752531445</v>
       </c>
       <c r="X41" t="n">
-        <v>259.6395643388364</v>
+        <v>259.651884492501</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.146402316421</v>
+        <v>276.1587224700856</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.44164731023473</v>
+        <v>56.45396746389936</v>
       </c>
       <c r="C42" t="n">
-        <v>62.61696264868313</v>
+        <v>62.62928280234776</v>
       </c>
       <c r="D42" t="n">
-        <v>37.35352922500614</v>
+        <v>37.36584937867077</v>
       </c>
       <c r="E42" t="n">
-        <v>47.55354411576833</v>
+        <v>47.56586426943296</v>
       </c>
       <c r="F42" t="n">
-        <v>34.97767605375127</v>
+        <v>34.9899962074159</v>
       </c>
       <c r="G42" t="n">
-        <v>27.02999580973381</v>
+        <v>27.04104030716069</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.46836049389714</v>
+        <v>57.4569858924438</v>
       </c>
       <c r="T42" t="n">
-        <v>89.17843697043973</v>
+        <v>89.18561533426885</v>
       </c>
       <c r="U42" t="n">
-        <v>115.8352414641156</v>
+        <v>115.8474776930278</v>
       </c>
       <c r="V42" t="n">
-        <v>122.7090508097927</v>
+        <v>122.7213709634573</v>
       </c>
       <c r="W42" t="n">
-        <v>141.603446821287</v>
+        <v>141.6157669749516</v>
       </c>
       <c r="X42" t="n">
-        <v>95.68144886384486</v>
+        <v>95.6937690175095</v>
       </c>
       <c r="Y42" t="n">
-        <v>95.59115943767175</v>
+        <v>95.60347959133638</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.74044384230469</v>
+        <v>69.75276399596932</v>
       </c>
       <c r="C43" t="n">
-        <v>57.15528475899522</v>
+        <v>57.16760491265985</v>
       </c>
       <c r="D43" t="n">
-        <v>38.52393667857974</v>
+        <v>38.53625683224438</v>
       </c>
       <c r="E43" t="n">
-        <v>36.34242630693656</v>
+        <v>36.35474646060119</v>
       </c>
       <c r="F43" t="n">
-        <v>35.32951168329863</v>
+        <v>35.34183183696327</v>
       </c>
       <c r="G43" t="n">
-        <v>57.71333824017907</v>
+        <v>57.72458892650604</v>
       </c>
       <c r="H43" t="n">
-        <v>50.48099549947206</v>
+        <v>50.48380711626182</v>
       </c>
       <c r="I43" t="n">
-        <v>39.76226033522091</v>
+        <v>39.74241868931287</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.83390744491476</v>
+        <v>58.79814045810587</v>
       </c>
       <c r="S43" t="n">
-        <v>110.6817629640083</v>
+        <v>110.6754452187066</v>
       </c>
       <c r="T43" t="n">
-        <v>117.0588781253387</v>
+        <v>117.0666287367424</v>
       </c>
       <c r="U43" t="n">
-        <v>176.2173418471139</v>
+        <v>176.2296036661965</v>
       </c>
       <c r="V43" t="n">
-        <v>142.0461069841954</v>
+        <v>142.05842713786</v>
       </c>
       <c r="W43" t="n">
-        <v>176.4314619969584</v>
+        <v>176.443782150623</v>
       </c>
       <c r="X43" t="n">
-        <v>115.6181190494045</v>
+        <v>115.6304392030692</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.4931170124622</v>
+        <v>108.5054371661268</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.887848835465</v>
+        <v>414.8854646414916</v>
       </c>
       <c r="H44" t="n">
-        <v>335.2258234250963</v>
+        <v>335.2014062985661</v>
       </c>
       <c r="I44" t="n">
-        <v>194.4808937474265</v>
+        <v>194.3889771092665</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>123.8073669168263</v>
+        <v>123.6576007921439</v>
       </c>
       <c r="S44" t="n">
-        <v>199.5657937982642</v>
+        <v>199.5114639780951</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2796743688757</v>
+        <v>221.2692375597571</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3124618134629</v>
+        <v>251.312271077945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.1215321493664</v>
+        <v>137.1202564931287</v>
       </c>
       <c r="H45" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I45" t="n">
-        <v>81.75372776949811</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.37529092466649</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S45" t="n">
-        <v>167.5598968335298</v>
+        <v>167.5362020784118</v>
       </c>
       <c r="T45" t="n">
-        <v>199.2699733100723</v>
+        <v>199.2648315202368</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9267778037482</v>
+        <v>225.9266938789957</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26035,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8048745798117</v>
+        <v>167.803805112474</v>
       </c>
       <c r="H46" t="n">
-        <v>160.5725318391047</v>
+        <v>160.5630233022298</v>
       </c>
       <c r="I46" t="n">
-        <v>149.8537966748535</v>
+        <v>149.8216348752809</v>
       </c>
       <c r="J46" t="n">
-        <v>80.20157226632458</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6475002703408741</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26065,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.57830583243795</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R46" t="n">
-        <v>168.9254437845474</v>
+        <v>168.8773566440738</v>
       </c>
       <c r="S46" t="n">
-        <v>220.773299303641</v>
+        <v>220.7546614046746</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1504144649713</v>
+        <v>227.1458449227103</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3088781867465</v>
+        <v>286.3088198521644</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>288219.6465689646</v>
+        <v>288100.0986236627</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>289661.8886711218</v>
+        <v>288100.0986236627</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>289661.8886711218</v>
+        <v>288100.0986236627</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>289661.8886711218</v>
+        <v>288100.0986236627</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>289661.8886711218</v>
+        <v>288100.0986236627</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>289661.8886711218</v>
+        <v>288100.0986236627</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>527425.5660941415</v>
+        <v>527269.1091972779</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>527425.5660941415</v>
+        <v>527269.1091972779</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>527425.5660941415</v>
+        <v>527269.1091972779</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>527425.5660941415</v>
+        <v>527269.1091972779</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>527425.5660941415</v>
+        <v>527269.1091972779</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>288219.6465689646</v>
+        <v>288100.0986236627</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415568</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.979441557</v>
+        <v>675902.9794415564</v>
       </c>
       <c r="D2" t="n">
-        <v>675902.979441557</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="E2" t="n">
-        <v>185117.0372222021</v>
+        <v>185152.7178898641</v>
       </c>
       <c r="F2" t="n">
-        <v>186403.3612592612</v>
+        <v>185152.7178898641</v>
       </c>
       <c r="G2" t="n">
-        <v>186403.3612592613</v>
+        <v>185152.7178898641</v>
       </c>
       <c r="H2" t="n">
-        <v>186403.3612592613</v>
+        <v>185152.7178898641</v>
       </c>
       <c r="I2" t="n">
-        <v>186403.3612592613</v>
+        <v>185152.7178898641</v>
       </c>
       <c r="J2" t="n">
-        <v>186403.3612592613</v>
+        <v>185152.7178898641</v>
       </c>
       <c r="K2" t="n">
-        <v>398462.8573392518</v>
+        <v>398465.6192122776</v>
       </c>
       <c r="L2" t="n">
-        <v>398462.8573392518</v>
+        <v>398465.6192122777</v>
       </c>
       <c r="M2" t="n">
-        <v>398462.8573392518</v>
+        <v>398465.6192122777</v>
       </c>
       <c r="N2" t="n">
-        <v>398462.8573392518</v>
+        <v>398465.6192122776</v>
       </c>
       <c r="O2" t="n">
-        <v>398462.8573392518</v>
+        <v>398465.6192122777</v>
       </c>
       <c r="P2" t="n">
-        <v>185117.0372222021</v>
+        <v>185152.7178898641</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82914.04896584689</v>
+        <v>83390.52177781389</v>
       </c>
       <c r="F3" t="n">
-        <v>518.0002162726978</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>88073.22907170608</v>
+        <v>88063.37294877438</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>80268.50673762325</v>
+        <v>80504.62705017837</v>
       </c>
       <c r="F4" t="n">
-        <v>81158.43571806607</v>
+        <v>80504.62705017837</v>
       </c>
       <c r="G4" t="n">
-        <v>81158.43571806606</v>
+        <v>80504.62705017837</v>
       </c>
       <c r="H4" t="n">
-        <v>81158.43571806607</v>
+        <v>80504.62705017837</v>
       </c>
       <c r="I4" t="n">
-        <v>81158.43571806606</v>
+        <v>80504.62705017837</v>
       </c>
       <c r="J4" t="n">
-        <v>81158.43571806607</v>
+        <v>80504.62705017837</v>
       </c>
       <c r="K4" t="n">
-        <v>227869.4398684156</v>
+        <v>228082.785678976</v>
       </c>
       <c r="L4" t="n">
-        <v>227869.4398684156</v>
+        <v>228082.785678976</v>
       </c>
       <c r="M4" t="n">
-        <v>227869.4398684156</v>
+        <v>228082.785678976</v>
       </c>
       <c r="N4" t="n">
-        <v>227869.4398684156</v>
+        <v>228082.785678976</v>
       </c>
       <c r="O4" t="n">
-        <v>227869.4398684156</v>
+        <v>228082.785678976</v>
       </c>
       <c r="P4" t="n">
-        <v>80268.50673762325</v>
+        <v>80504.62705017837</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2249.837587680731</v>
+        <v>2262.766475550057</v>
       </c>
       <c r="F5" t="n">
-        <v>2304.272287908017</v>
+        <v>2262.766475550057</v>
       </c>
       <c r="G5" t="n">
-        <v>2304.272287908017</v>
+        <v>2262.766475550057</v>
       </c>
       <c r="H5" t="n">
-        <v>2304.272287908017</v>
+        <v>2262.766475550057</v>
       </c>
       <c r="I5" t="n">
-        <v>2304.272287908017</v>
+        <v>2262.766475550057</v>
       </c>
       <c r="J5" t="n">
-        <v>2304.272287908017</v>
+        <v>2262.766475550057</v>
       </c>
       <c r="K5" t="n">
-        <v>11505.1229562173</v>
+        <v>11517.0161010882</v>
       </c>
       <c r="L5" t="n">
-        <v>11505.1229562173</v>
+        <v>11517.0161010882</v>
       </c>
       <c r="M5" t="n">
-        <v>11505.1229562173</v>
+        <v>11517.0161010882</v>
       </c>
       <c r="N5" t="n">
-        <v>11505.1229562173</v>
+        <v>11517.0161010882</v>
       </c>
       <c r="O5" t="n">
-        <v>11505.1229562173</v>
+        <v>11517.0161010882</v>
       </c>
       <c r="P5" t="n">
-        <v>2249.83758768073</v>
+        <v>2262.766475550057</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190402.734106638</v>
+        <v>189875.3888925916</v>
       </c>
       <c r="C6" t="n">
-        <v>190402.7341066381</v>
+        <v>189875.3888925912</v>
       </c>
       <c r="D6" t="n">
-        <v>190402.7341066381</v>
+        <v>189875.3888925916</v>
       </c>
       <c r="E6" t="n">
-        <v>19684.64393105119</v>
+        <v>18994.80258632182</v>
       </c>
       <c r="F6" t="n">
-        <v>102422.6530370144</v>
+        <v>102385.3243641357</v>
       </c>
       <c r="G6" t="n">
-        <v>102940.6532532872</v>
+        <v>102385.3243641357</v>
       </c>
       <c r="H6" t="n">
-        <v>102940.6532532872</v>
+        <v>102385.3243641357</v>
       </c>
       <c r="I6" t="n">
-        <v>102940.6532532872</v>
+        <v>102385.3243641357</v>
       </c>
       <c r="J6" t="n">
-        <v>102940.6532532872</v>
+        <v>102385.3243641357</v>
       </c>
       <c r="K6" t="n">
-        <v>71015.0654429128</v>
+        <v>70802.44448343906</v>
       </c>
       <c r="L6" t="n">
-        <v>159088.2945146189</v>
+        <v>158865.8174322135</v>
       </c>
       <c r="M6" t="n">
-        <v>159088.2945146189</v>
+        <v>158865.8174322135</v>
       </c>
       <c r="N6" t="n">
-        <v>159088.2945146189</v>
+        <v>158865.8174322134</v>
       </c>
       <c r="O6" t="n">
-        <v>159088.2945146189</v>
+        <v>158865.8174322135</v>
       </c>
       <c r="P6" t="n">
-        <v>102598.6928968981</v>
+        <v>102385.3243641357</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="L2" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="M2" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="N2" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="O2" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="F3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="G3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="H3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="I3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="J3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="K3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="L3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="M3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="N3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="O3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="P3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
     </row>
     <row r="4">
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.2035590679234</v>
+        <v>103.79662731881</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="3">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,34 +28482,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6475002703408741</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6475002703408723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29475,31 +29475,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6475002703408724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y29" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I30" t="n">
-        <v>81.75372776949811</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.37529092466649</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29667,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J31" t="n">
-        <v>80.20157226632458</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6475002703408741</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.57830583243795</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y32" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I33" t="n">
-        <v>81.75372776949811</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.37529092466649</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J34" t="n">
-        <v>80.20157226632458</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6475002703408741</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.57830583243795</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I36" t="n">
-        <v>81.75372776949811</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.37529092466649</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y36" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J37" t="n">
-        <v>80.20157226632458</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6475002703408741</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.57830583243795</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I39" t="n">
-        <v>81.75372776949811</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.37529092466649</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y39" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J40" t="n">
-        <v>80.20157226632458</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6475002703408741</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.57830583243795</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I42" t="n">
-        <v>81.75372776949811</v>
+        <v>81.7098071490315</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.37529092466649</v>
+        <v>86.29608833825564</v>
       </c>
       <c r="S42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y42" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30615,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="E43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="F43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="H43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="I43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="J43" t="n">
-        <v>80.20157226632458</v>
+        <v>80.12596092555171</v>
       </c>
       <c r="K43" t="n">
-        <v>0.6475002703408741</v>
+        <v>0.5232476105649688</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.57830583243795</v>
+        <v>70.48875252655408</v>
       </c>
       <c r="R43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="S43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="U43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="V43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="W43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="X43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.0915363396326</v>
+        <v>110.079216185968</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H11" t="n">
-        <v>4.248978690670835</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I11" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J11" t="n">
-        <v>35.2131580761454</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K11" t="n">
-        <v>52.77539588657835</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L11" t="n">
-        <v>65.47254531703047</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M11" t="n">
-        <v>72.8508218741126</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N11" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O11" t="n">
-        <v>69.90407502675612</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P11" t="n">
-        <v>59.6615107474019</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R11" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S11" t="n">
-        <v>9.454275787981128</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T11" t="n">
-        <v>1.816175195255617</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H12" t="n">
-        <v>2.143907896863844</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I12" t="n">
-        <v>7.642905081916972</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J12" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K12" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L12" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M12" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N12" t="n">
-        <v>57.73460235064898</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O12" t="n">
-        <v>52.81588178073247</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P12" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R12" t="n">
-        <v>13.78254322797665</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S12" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8947553847492603</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H13" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I13" t="n">
-        <v>5.596678252404766</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J13" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K13" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L13" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M13" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N13" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O13" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P13" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.58373741925644</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R13" t="n">
-        <v>8.367947592622116</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S13" t="n">
-        <v>3.243298733331297</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7951749633102293</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H14" t="n">
-        <v>4.248978690670835</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I14" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J14" t="n">
-        <v>35.2131580761454</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K14" t="n">
-        <v>52.77539588657835</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L14" t="n">
-        <v>65.47254531703047</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M14" t="n">
-        <v>72.8508218741126</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N14" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O14" t="n">
-        <v>69.90407502675612</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P14" t="n">
-        <v>59.6615107474019</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R14" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S14" t="n">
-        <v>9.454275787981128</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T14" t="n">
-        <v>1.816175195255617</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H15" t="n">
-        <v>2.143907896863844</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I15" t="n">
-        <v>7.642905081916972</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J15" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K15" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L15" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M15" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N15" t="n">
-        <v>57.73460235064898</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O15" t="n">
-        <v>52.81588178073247</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P15" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R15" t="n">
-        <v>13.78254322797665</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S15" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8947553847492603</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H16" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I16" t="n">
-        <v>5.596678252404766</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J16" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K16" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L16" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M16" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N16" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O16" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P16" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.58373741925644</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R16" t="n">
-        <v>8.367947592622116</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S16" t="n">
-        <v>3.243298733331297</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7951749633102293</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H17" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I17" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J17" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K17" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L17" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M17" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N17" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O17" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P17" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R17" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S17" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T17" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H18" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I18" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J18" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K18" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L18" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M18" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N18" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O18" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P18" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R18" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S18" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H19" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I19" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J19" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K19" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L19" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M19" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N19" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O19" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P19" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R19" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S19" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H20" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I20" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J20" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K20" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L20" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M20" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N20" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O20" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P20" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R20" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S20" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T20" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H21" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I21" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J21" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K21" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L21" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M21" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N21" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O21" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P21" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R21" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S21" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H22" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I22" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J22" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K22" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L22" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M22" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N22" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O22" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P22" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R22" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S22" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H23" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I23" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J23" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K23" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L23" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M23" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N23" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O23" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P23" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R23" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S23" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T23" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H24" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I24" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J24" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K24" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L24" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M24" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N24" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O24" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P24" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R24" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S24" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H25" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I25" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J25" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K25" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L25" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M25" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N25" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O25" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P25" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R25" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S25" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H26" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I26" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J26" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K26" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L26" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M26" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N26" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O26" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P26" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R26" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S26" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T26" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H27" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I27" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J27" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K27" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L27" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M27" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N27" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O27" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P27" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R27" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S27" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H28" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I28" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J28" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K28" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L28" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M28" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N28" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O28" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P28" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R28" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S28" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H29" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I29" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J29" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K29" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L29" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M29" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N29" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O29" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P29" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q29" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R29" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S29" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T29" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H30" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I30" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J30" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K30" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L30" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M30" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N30" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O30" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P30" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R30" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S30" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H31" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I31" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J31" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K31" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L31" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M31" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N31" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O31" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P31" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R31" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S31" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H32" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I32" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J32" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K32" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L32" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M32" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N32" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O32" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P32" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q32" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R32" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S32" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T32" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H33" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I33" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J33" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K33" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L33" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M33" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N33" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O33" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P33" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R33" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S33" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H34" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I34" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J34" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K34" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L34" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M34" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N34" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O34" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P34" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R34" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S34" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H35" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I35" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J35" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K35" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L35" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M35" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N35" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O35" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P35" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R35" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S35" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T35" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H36" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I36" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J36" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K36" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L36" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M36" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N36" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O36" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P36" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R36" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S36" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H37" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I37" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J37" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K37" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L37" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M37" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N37" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O37" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P37" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R37" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S37" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H38" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I38" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J38" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K38" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L38" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M38" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N38" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O38" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P38" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R38" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S38" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T38" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H39" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I39" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J39" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K39" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L39" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M39" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N39" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O39" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P39" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R39" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S39" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H40" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I40" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J40" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K40" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L40" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M40" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N40" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O40" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P40" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R40" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S40" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H41" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I41" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J41" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K41" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L41" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M41" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N41" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O41" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P41" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R41" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S41" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T41" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H42" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I42" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J42" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K42" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L42" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M42" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N42" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O42" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P42" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R42" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S42" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H43" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I43" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J43" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K43" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L43" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M43" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N43" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O43" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P43" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R43" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S43" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4148886796700436</v>
+        <v>0.4172728736434568</v>
       </c>
       <c r="H44" t="n">
-        <v>4.248978690670834</v>
+        <v>4.273395817201053</v>
       </c>
       <c r="I44" t="n">
-        <v>15.99499582297937</v>
+        <v>16.08691246113938</v>
       </c>
       <c r="J44" t="n">
-        <v>35.21315807614539</v>
+        <v>35.41551355939638</v>
       </c>
       <c r="K44" t="n">
-        <v>52.77539588657834</v>
+        <v>53.07867430072392</v>
       </c>
       <c r="L44" t="n">
-        <v>65.47254531703045</v>
+        <v>65.84878900748987</v>
       </c>
       <c r="M44" t="n">
-        <v>72.85082187411258</v>
+        <v>73.2694654741467</v>
       </c>
       <c r="N44" t="n">
-        <v>74.02962433522511</v>
+        <v>74.45504202638617</v>
       </c>
       <c r="O44" t="n">
-        <v>69.9040750267561</v>
+        <v>70.30578488909404</v>
       </c>
       <c r="P44" t="n">
-        <v>59.66151074740189</v>
+        <v>60.00436082102119</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.80330990671845</v>
+        <v>45.06077603366488</v>
       </c>
       <c r="R44" t="n">
-        <v>26.0617510243234</v>
+        <v>26.21151714900582</v>
       </c>
       <c r="S44" t="n">
-        <v>9.454275787981127</v>
+        <v>9.508605608150281</v>
       </c>
       <c r="T44" t="n">
-        <v>1.816175195255616</v>
+        <v>1.826612004374233</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03319109437360348</v>
+        <v>0.03338182989147654</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2219850138442126</v>
+        <v>0.2232606700819686</v>
       </c>
       <c r="H45" t="n">
-        <v>2.143907896863843</v>
+        <v>2.156228050528487</v>
       </c>
       <c r="I45" t="n">
-        <v>7.642905081916971</v>
+        <v>7.68682570238357</v>
       </c>
       <c r="J45" t="n">
-        <v>20.97271571586923</v>
+        <v>21.09323725541968</v>
       </c>
       <c r="K45" t="n">
-        <v>35.84571164343148</v>
+        <v>36.05170215091157</v>
       </c>
       <c r="L45" t="n">
-        <v>48.19898294016556</v>
+        <v>48.47596259828008</v>
       </c>
       <c r="M45" t="n">
-        <v>56.24593969201825</v>
+        <v>56.56916188875142</v>
       </c>
       <c r="N45" t="n">
-        <v>57.73460235064897</v>
+        <v>58.06637927715201</v>
       </c>
       <c r="O45" t="n">
-        <v>52.81588178073246</v>
+        <v>53.11939285059891</v>
       </c>
       <c r="P45" t="n">
-        <v>42.38940145942689</v>
+        <v>42.63299585100329</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.33619229351739</v>
+        <v>28.49902869327024</v>
       </c>
       <c r="R45" t="n">
-        <v>13.78254322797664</v>
+        <v>13.8617458143875</v>
       </c>
       <c r="S45" t="n">
-        <v>4.12327427030807</v>
+        <v>4.146969025426037</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8947553847492602</v>
+        <v>0.8998971745847767</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01460427722659294</v>
+        <v>0.01468820197907689</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.186104778647075</v>
+        <v>0.1871742459847393</v>
       </c>
       <c r="H46" t="n">
-        <v>1.654640668334904</v>
+        <v>1.664149205209774</v>
       </c>
       <c r="I46" t="n">
-        <v>5.596678252404765</v>
+        <v>5.628840051977433</v>
       </c>
       <c r="J46" t="n">
-        <v>13.1576078503482</v>
+        <v>13.23321919112107</v>
       </c>
       <c r="K46" t="n">
-        <v>21.62199155554198</v>
+        <v>21.74624421531788</v>
       </c>
       <c r="L46" t="n">
-        <v>27.66870499994786</v>
+        <v>27.82770562576751</v>
       </c>
       <c r="M46" t="n">
-        <v>29.17276998374103</v>
+        <v>29.34041385013508</v>
       </c>
       <c r="N46" t="n">
-        <v>28.47910671787469</v>
+        <v>28.64276438782835</v>
       </c>
       <c r="O46" t="n">
-        <v>26.30506453095203</v>
+        <v>26.4562288779157</v>
       </c>
       <c r="P46" t="n">
-        <v>22.50852704655168</v>
+        <v>22.637874259827</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.58373741925643</v>
+        <v>15.6732907251403</v>
       </c>
       <c r="R46" t="n">
-        <v>8.367947592622114</v>
+        <v>8.416034733095637</v>
       </c>
       <c r="S46" t="n">
-        <v>3.243298733331296</v>
+        <v>3.261936632297682</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7951749633102292</v>
+        <v>0.7997445055711585</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.01020950432644034</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1108489.135830686</v>
+        <v>1116240.291003187</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7033878.550926704</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14679654.06804665</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5775293.729104646</v>
+        <v>4885386.91775569</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>145.6303909672899</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>167.0111767442566</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>169.9176259624974</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>157.076767753126</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>154.9580215702047</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>159.7924265325927</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>171.2286349342484</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.2449138407846</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>105.744389411247</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>101.7897368234474</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>90.07841718159411</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>85.56487203326689</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>73.2753328061813</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>89.47685159384554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>91.34141156332694</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.4827453927513</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>107.0569706554708</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>109.58537009747</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>99.04278007740484</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>112.0003095739271</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>115.0901297893206</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8854646414916</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>335.2014062985661</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3889771092665</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>123.6576007921439</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>199.5114639780951</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2692375597571</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.312271077945</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1202564931287</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>110.079216185968</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>81.7098071490315</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.29608833825564</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>167.5362020784118</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>199.2648315202368</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9266938789957</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.803805112474</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5630233022298</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>149.8216348752809</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>80.12596092555171</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.48875252655408</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>168.8773566440738</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>220.7546614046746</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>227.1458449227103</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3088198521644</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8854646414916</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>335.2014062985661</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3889771092665</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>123.6576007921439</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>199.5114639780951</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2692375597571</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.312271077945</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.1202564931287</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>110.079216185968</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>81.7098071490315</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.29608833825564</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>167.5362020784118</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>199.2648315202368</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9266938789957</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.803805112474</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>160.5630233022298</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>149.8216348752809</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>80.12596092555171</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.48875252655408</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>168.8773566440738</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>220.7546614046746</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>227.1458449227103</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3088198521644</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8854646414916</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>335.2014062985661</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>194.3889771092665</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>123.6576007921439</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>199.5114639780951</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2692375597571</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.312271077945</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1202564931287</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>110.079216185968</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>81.7098071490315</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.29608833825564</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>167.5362020784118</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>199.2648315202368</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9266938789957</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.803805112474</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>160.5630233022298</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>149.8216348752809</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>80.12596092555171</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.48875252655408</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>168.8773566440738</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>220.7546614046746</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>227.1458449227103</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3088198521644</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8854646414916</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>335.2014062985661</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>194.3889771092665</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>123.6576007921439</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>199.5114639780951</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2692375597571</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>251.312271077945</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1202564931287</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>110.079216185968</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>81.7098071490315</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.29608833825564</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>167.5362020784118</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>199.2648315202368</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9266938789957</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.803805112474</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>160.5630233022298</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>149.8216348752809</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>80.12596092555171</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.48875252655408</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>168.8773566440738</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>220.7546614046746</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>227.1458449227103</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3088198521644</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8854646414916</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>335.2014062985661</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>194.3889771092665</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>123.6576007921439</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>199.5114639780951</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2692375597571</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>251.312271077945</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1202564931287</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>110.079216185968</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>81.7098071490315</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.29608833825564</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>167.5362020784118</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>199.2648315202368</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9266938789957</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,19 +24378,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.803805112474</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>160.5630233022298</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>149.8216348752809</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>80.12596092555171</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.48875252655408</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>168.8773566440738</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>220.7546614046746</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>227.1458449227103</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3088198521644</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8854646414916</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>335.2014062985661</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>194.3889771092665</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>123.6576007921439</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>199.5114639780951</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2692375597571</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.312271077945</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1202564931287</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>110.079216185968</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>81.7098071490315</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.29608833825564</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>167.5362020784118</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>199.2648315202368</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9266938789957</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,19 +24615,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.803805112474</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>160.5630233022298</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>149.8216348752809</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>80.12596092555171</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.48875252655408</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>168.8773566440738</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>220.7546614046746</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>227.1458449227103</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3088198521644</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>272.6546254775126</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>255.1936755850396</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>244.603825434715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>271.8511538862938</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>296.7968295557434</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>304.8062484555236</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>225.1221901125981</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>84.30976092329854</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>13.57838460617588</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>89.43224779212709</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>111.1900213737891</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>141.233054891977</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
-        <v>217.6730422841669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>239.161752531445</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>259.651884492501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1587224700856</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.45396746389936</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>62.62928280234776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>37.36584937867077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>47.56586426943296</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>34.9899962074159</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>27.04104030716069</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>57.4569858924438</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>89.18561533426885</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>115.8474776930278</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>122.7213709634573</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>141.6157669749516</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>95.6937690175095</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>95.60347959133638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.75276399596932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.16760491265985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>38.53625683224438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>36.35474646060119</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>35.34183183696327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.72458892650604</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>50.48380711626182</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>39.74241868931287</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>58.79814045810587</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>110.6754452187066</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>117.0666287367424</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>176.2296036661965</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
-        <v>142.05842713786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>176.443782150623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>115.6304392030692</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5054371661268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>272.6546254775126</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>255.1936755850396</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>244.603825434715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>271.8511538862938</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>296.7968295557434</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>304.8062484555236</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>225.1221901125981</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>84.30976092329854</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.57838460617588</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>89.43224779212709</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>111.1900213737891</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>141.233054891977</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
-        <v>217.6730422841669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>239.161752531445</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>259.651884492501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>276.1587224700856</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.45396746389936</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>62.62928280234776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>37.36584937867077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>47.56586426943296</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>34.9899962074159</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>27.04104030716069</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>57.4569858924438</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>89.18561533426885</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>115.8474776930278</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>122.7213709634573</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>141.6157669749516</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>95.6937690175095</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>95.60347959133638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.75276399596932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.16760491265985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>38.53625683224438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>36.35474646060119</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>35.34183183696327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.72458892650604</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>50.48380711626182</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>39.74241868931287</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>58.79814045810587</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>110.6754452187066</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>117.0666287367424</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2296036661965</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
-        <v>142.05842713786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>176.443782150623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>115.6304392030692</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.5054371661268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.6546254775126</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>255.1936755850396</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>244.603825434715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>271.8511538862938</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>296.7968295557434</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>304.8062484555236</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>225.1221901125981</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>84.30976092329854</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>13.57838460617588</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>89.43224779212709</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>111.1900213737891</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>141.233054891977</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
-        <v>217.6730422841669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>239.161752531445</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>259.651884492501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>276.1587224700856</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.45396746389936</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>62.62928280234776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>37.36584937867077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>47.56586426943296</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>34.9899962074159</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>27.04104030716069</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>57.4569858924438</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>89.18561533426885</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>115.8474776930278</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>122.7213709634573</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>141.6157669749516</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>95.6937690175095</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>95.60347959133638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.75276399596932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>57.16760491265985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>38.53625683224438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>36.35474646060119</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34183183696327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.72458892650604</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>50.48380711626182</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>39.74241868931287</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>58.79814045810587</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>110.6754452187066</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>117.0666287367424</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>176.2296036661965</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>142.05842713786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>176.443782150623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>115.6304392030692</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.5054371661268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.6546254775126</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>255.1936755850396</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>244.603825434715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>271.8511538862938</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>296.7968295557434</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>304.8062484555236</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>225.1221901125981</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>84.30976092329854</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>13.57838460617588</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>89.43224779212709</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>111.1900213737891</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>141.233054891977</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
-        <v>217.6730422841669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>239.161752531445</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>259.651884492501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>276.1587224700856</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56.45396746389936</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>62.62928280234776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>37.36584937867077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>47.56586426943296</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>34.9899962074159</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>27.04104030716069</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>57.4569858924438</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>89.18561533426885</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>115.8474776930278</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>122.7213709634573</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>141.6157669749516</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>95.6937690175095</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>95.60347959133638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.75276399596932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.16760491265985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>38.53625683224438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>36.35474646060119</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>35.34183183696327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.72458892650604</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>50.48380711626182</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>39.74241868931287</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>58.79814045810587</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>110.6754452187066</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>117.0666287367424</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>176.2296036661965</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
-        <v>142.05842713786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>176.443782150623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>115.6304392030692</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.5054371661268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>272.6546254775126</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>255.1936755850396</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>244.603825434715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>271.8511538862938</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>296.7968295557434</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>304.8062484555236</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>225.1221901125981</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>84.30976092329854</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>13.57838460617588</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>89.43224779212709</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>111.1900213737891</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>141.233054891977</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>217.6730422841669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>239.161752531445</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>259.651884492501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.1587224700856</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.45396746389936</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>62.62928280234776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>37.36584937867077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>47.56586426943296</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>34.9899962074159</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>27.04104030716069</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>57.4569858924438</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>89.18561533426885</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>115.8474776930278</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
-        <v>122.7213709634573</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>141.6157669749516</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>95.6937690175095</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>95.60347959133638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.75276399596932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.16760491265985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>38.53625683224438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>36.35474646060119</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>35.34183183696327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.72458892650604</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>50.48380711626182</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>39.74241868931287</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>58.79814045810587</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>110.6754452187066</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>117.0666287367424</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>176.2296036661965</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>142.05842713786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>176.443782150623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>115.6304392030692</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5054371661268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8854646414916</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>335.2014062985661</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>194.3889771092665</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>123.6576007921439</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>199.5114639780951</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2692375597571</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.312271077945</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.1202564931287</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>110.079216185968</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>81.7098071490315</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.29608833825564</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>167.5362020784118</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>199.2648315202368</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9266938789957</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.803805112474</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>160.5630233022298</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>149.8216348752809</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>80.12596092555171</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.48875252655408</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>168.8773566440738</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>220.7546614046746</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1458449227103</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3088198521644</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>288100.0986236627</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>288100.0986236627</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>288100.0986236627</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>288100.0986236627</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>288100.0986236627</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>288100.0986236627</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>527269.1091972779</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>527269.1091972779</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>527269.1091972779</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>527269.1091972779</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>527269.1091972779</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>288100.0986236627</v>
+        <v>275202.4540808474</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415567</v>
+        <v>675902.9794415572</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415564</v>
+        <v>675902.979441557</v>
       </c>
       <c r="D2" t="n">
-        <v>675902.9794415567</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="E2" t="n">
-        <v>185152.7178898641</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="F2" t="n">
-        <v>185152.7178898641</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="G2" t="n">
-        <v>185152.7178898641</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="H2" t="n">
-        <v>185152.7178898641</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="I2" t="n">
-        <v>185152.7178898641</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="J2" t="n">
-        <v>185152.7178898641</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="K2" t="n">
-        <v>398465.6192122776</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="L2" t="n">
-        <v>398465.6192122777</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="M2" t="n">
-        <v>398465.6192122777</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="N2" t="n">
-        <v>398465.6192122776</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="O2" t="n">
-        <v>398465.6192122777</v>
+        <v>188628.9044472749</v>
       </c>
       <c r="P2" t="n">
-        <v>185152.7178898641</v>
+        <v>188628.9044472749</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>83390.52177781389</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>88063.37294877438</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>80504.62705017837</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>80504.62705017837</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>80504.62705017837</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>80504.62705017837</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>80504.62705017837</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>80504.62705017837</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>228082.785678976</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>228082.785678976</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>228082.785678976</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>228082.785678976</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>228082.785678976</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>80504.62705017837</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2262.766475550057</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>2262.766475550057</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>2262.766475550057</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>2262.766475550057</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>2262.766475550057</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>2262.766475550057</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>11517.0161010882</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>11517.0161010882</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>11517.0161010882</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>11517.0161010882</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>11517.0161010882</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>2262.766475550057</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189875.3888925916</v>
+        <v>189875.388892592</v>
       </c>
       <c r="C6" t="n">
-        <v>189875.3888925912</v>
+        <v>189875.3888925918</v>
       </c>
       <c r="D6" t="n">
-        <v>189875.3888925916</v>
+        <v>189875.3888925917</v>
       </c>
       <c r="E6" t="n">
-        <v>18994.80258632182</v>
+        <v>-11792.14766133324</v>
       </c>
       <c r="F6" t="n">
-        <v>102385.3243641357</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="G6" t="n">
-        <v>102385.3243641357</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="H6" t="n">
-        <v>102385.3243641357</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="I6" t="n">
-        <v>102385.3243641357</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="J6" t="n">
-        <v>102385.3243641357</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="K6" t="n">
-        <v>70802.44448343906</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="L6" t="n">
-        <v>158865.8174322135</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="M6" t="n">
-        <v>158865.8174322135</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="N6" t="n">
-        <v>158865.8174322134</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="O6" t="n">
-        <v>158865.8174322135</v>
+        <v>121307.8523386668</v>
       </c>
       <c r="P6" t="n">
-        <v>102385.3243641357</v>
+        <v>121307.8523386668</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.79662731881</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>81.7098071490315</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.29608833825564</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.12596092555171</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29712,31 +29714,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.48875252655408</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>81.7098071490315</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.29608833825564</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.12596092555171</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29949,31 +29951,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.48875252655408</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30033,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>81.7098071490315</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.29608833825564</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.12596092555171</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.48875252655408</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30270,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>81.7098071490315</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.29608833825564</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.12596092555171</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.48875252655408</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>81.7098071490315</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.29608833825564</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.12596092555171</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5232476105649688</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.48875252655408</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.079216185968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4172728736434568</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>4.273395817201053</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>16.08691246113938</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>35.41551355939638</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>53.07867430072392</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>65.84878900748987</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>73.2694654741467</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>74.45504202638617</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>70.30578488909404</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>60.00436082102119</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.06077603366488</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21151714900582</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>9.508605608150281</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>1.826612004374233</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03338182989147654</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2232606700819686</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156228050528487</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>7.68682570238357</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09323725541968</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>36.05170215091157</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>48.47596259828008</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>56.56916188875142</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>58.06637927715201</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>53.11939285059891</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>42.63299585100329</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.49902869327024</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>13.8617458143875</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>4.146969025426037</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8998971745847767</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01468820197907689</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1871742459847393</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664149205209774</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>5.628840051977433</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23321919112107</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>21.74624421531788</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>27.82770562576751</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34041385013508</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>28.64276438782835</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>26.4562288779157</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>22.637874259827</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.6732907251403</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>8.416034733095637</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>3.261936632297682</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7997445055711585</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01020950432644034</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1116240.291003187</v>
+        <v>1034556.505125254</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>5923717.618902254</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17785260.94054101</v>
+        <v>13149067.94790838</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4885386.91775569</v>
+        <v>6470046.628904061</v>
       </c>
     </row>
     <row r="11">
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446562</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638391</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G11" t="n">
-        <v>414.6367263390697</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H11" t="n">
-        <v>332.654015158888</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I11" t="n">
-        <v>184.7994937051469</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.0327934026353</v>
+        <v>60.15144880217284</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8433399116564</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T11" t="n">
-        <v>220.1803856409053</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2923720137513</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9871697683942</v>
+        <v>56.39435553063285</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7938786076111</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I12" t="n">
-        <v>77.12765456497084</v>
+        <v>5.92924433958094</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>78.03303713061706</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S12" t="n">
-        <v>165.0641745378389</v>
+        <v>89.41013973822669</v>
       </c>
       <c r="T12" t="n">
-        <v>198.728398625364</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9179381734211</v>
+        <v>145.0625933590873</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="13">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6922296731294</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H13" t="n">
-        <v>159.571016214239</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I13" t="n">
-        <v>146.4662571175369</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>163.8605191622716</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S13" t="n">
-        <v>218.8102057935515</v>
+        <v>142.0421789768402</v>
       </c>
       <c r="T13" t="n">
-        <v>226.6691135000563</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3027339191093</v>
+        <v>205.4417517592154</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G14" t="n">
-        <v>414.6367263390697</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H14" t="n">
-        <v>332.654015158888</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I14" t="n">
-        <v>184.7994937051469</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.0327934026353</v>
+        <v>60.15144880217284</v>
       </c>
       <c r="S14" t="n">
-        <v>193.8433399116564</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T14" t="n">
-        <v>220.1803856409053</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2923720137513</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9871697683942</v>
+        <v>56.39435553063285</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7938786076111</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I15" t="n">
-        <v>77.12765456497084</v>
+        <v>5.92924433958094</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.03303713061706</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S15" t="n">
-        <v>165.0641745378389</v>
+        <v>89.41013973822669</v>
       </c>
       <c r="T15" t="n">
-        <v>198.728398625364</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9179381734211</v>
+        <v>145.0625933590873</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="16">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6922296731294</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H16" t="n">
-        <v>159.571016214239</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I16" t="n">
-        <v>146.4662571175369</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23757736389061</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>163.8605191622716</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S16" t="n">
-        <v>218.8102057935515</v>
+        <v>142.0421789768402</v>
       </c>
       <c r="T16" t="n">
-        <v>226.6691135000563</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3027339191093</v>
+        <v>205.4417517592154</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G17" t="n">
-        <v>414.6367263390697</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H17" t="n">
-        <v>332.654015158888</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I17" t="n">
-        <v>184.7994937051469</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.0327934026353</v>
+        <v>60.15144880217284</v>
       </c>
       <c r="S17" t="n">
-        <v>193.8433399116564</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T17" t="n">
-        <v>220.1803856409053</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2923720137513</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9871697683942</v>
+        <v>56.39435553063285</v>
       </c>
       <c r="H18" t="n">
-        <v>108.7938786076111</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>5.92924433958094</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S18" t="n">
-        <v>165.0641745378389</v>
+        <v>89.41013973822669</v>
       </c>
       <c r="T18" t="n">
-        <v>198.728398625364</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9179381734211</v>
+        <v>145.0625933590873</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6922296731294</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H19" t="n">
-        <v>159.571016214239</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I19" t="n">
-        <v>146.4662571175369</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J19" t="n">
-        <v>72.23757736389061</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>163.8605191622716</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S19" t="n">
-        <v>218.8102057935515</v>
+        <v>142.0421789768402</v>
       </c>
       <c r="T19" t="n">
-        <v>226.6691135000563</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3027339191093</v>
+        <v>205.4417517592154</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G20" t="n">
-        <v>414.6367263390697</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H20" t="n">
-        <v>332.654015158888</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I20" t="n">
-        <v>184.7994937051469</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>60.15144880217284</v>
       </c>
       <c r="S20" t="n">
-        <v>193.8433399116564</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T20" t="n">
-        <v>220.1803856409053</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2923720137513</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9871697683942</v>
+        <v>56.39435553063285</v>
       </c>
       <c r="H21" t="n">
-        <v>108.7938786076111</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>5.92924433958094</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.03303713061706</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S21" t="n">
-        <v>165.0641745378389</v>
+        <v>89.41013973822669</v>
       </c>
       <c r="T21" t="n">
-        <v>198.728398625364</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9179381734211</v>
+        <v>145.0625933590873</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6922296731294</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H22" t="n">
-        <v>159.571016214239</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I22" t="n">
-        <v>146.4662571175369</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J22" t="n">
-        <v>72.23757736389061</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>163.8605191622716</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S22" t="n">
-        <v>218.8102057935515</v>
+        <v>142.0421789768402</v>
       </c>
       <c r="T22" t="n">
-        <v>226.6691135000563</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3027339191093</v>
+        <v>205.4417517592154</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G23" t="n">
-        <v>414.6367263390697</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H23" t="n">
-        <v>332.654015158888</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I23" t="n">
-        <v>184.7994937051469</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>60.15144880217286</v>
       </c>
       <c r="S23" t="n">
-        <v>193.8433399116564</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T23" t="n">
-        <v>220.1803856409053</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2923720137513</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>85.65935076676089</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>91.83466610520929</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>66.57123268153231</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>76.7712475722945</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>64.19537951027743</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9871697683942</v>
+        <v>56.39435553063286</v>
       </c>
       <c r="H24" t="n">
-        <v>108.7938786076111</v>
+        <v>30.634094220338</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>5.929244339580954</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>14.60701101727312</v>
       </c>
       <c r="S24" t="n">
-        <v>165.0641745378389</v>
+        <v>89.4101397382267</v>
       </c>
       <c r="T24" t="n">
-        <v>198.728398625364</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9179381734211</v>
+        <v>145.0625933590874</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>98.95814729883085</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>86.37298821552139</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>67.74164013510591</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>65.56012976346273</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>64.5472151398248</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6922296731294</v>
+        <v>87.05399338225226</v>
       </c>
       <c r="H25" t="n">
-        <v>159.571016214239</v>
+        <v>80.79185121477076</v>
       </c>
       <c r="I25" t="n">
-        <v>146.4662571175369</v>
+        <v>72.67745629892451</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>8.020423551391943</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>163.8605191622716</v>
+        <v>93.57996578067298</v>
       </c>
       <c r="S25" t="n">
-        <v>218.8102057935515</v>
+        <v>142.0421789768402</v>
       </c>
       <c r="T25" t="n">
-        <v>226.6691135000563</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3027339191093</v>
+        <v>205.4417517592154</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>314.0160710166889</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>296.5551211242159</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>285.9652709738913</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>313.2125994254701</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>338.1582750949198</v>
       </c>
       <c r="G26" t="n">
-        <v>414.6367263390697</v>
+        <v>346.4441778805278</v>
       </c>
       <c r="H26" t="n">
-        <v>332.654015158888</v>
+        <v>269.3151762475092</v>
       </c>
       <c r="I26" t="n">
-        <v>184.7994937051469</v>
+        <v>136.3303514708541</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>72.30751103848763</v>
       </c>
       <c r="S26" t="n">
-        <v>193.8433399116564</v>
+        <v>137.0940698796061</v>
       </c>
       <c r="T26" t="n">
-        <v>220.1803856409053</v>
+        <v>153.761775123177</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2923720137513</v>
+        <v>182.6166191420196</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>259.0344878233432</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>280.5231980706213</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>301.0133300316774</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>317.5201680092619</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>97.81541300307566</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>103.9907283415241</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>78.72729491784708</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>88.92730980860927</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>76.3514417465922</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9871697683942</v>
+        <v>68.55041776694763</v>
       </c>
       <c r="H27" t="n">
-        <v>108.7938786076111</v>
+        <v>42.79015645665277</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>18.08530657589572</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>78.03303713061706</v>
+        <v>26.76307325358789</v>
       </c>
       <c r="S27" t="n">
-        <v>165.0641745378389</v>
+        <v>101.5662019745415</v>
       </c>
       <c r="T27" t="n">
-        <v>198.728398625364</v>
+        <v>131.1433303253802</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9179381734211</v>
+        <v>157.2186555954021</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>164.0828165026336</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>182.9772125141279</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>137.0552145566858</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>136.9649251305127</v>
       </c>
     </row>
     <row r="28">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>111.1142095351456</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>98.52905045183616</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>79.89770237142068</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>77.71619199977749</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>76.70327737613957</v>
       </c>
       <c r="G28" t="n">
-        <v>167.6922296731294</v>
+        <v>99.21005561856703</v>
       </c>
       <c r="H28" t="n">
-        <v>159.571016214239</v>
+        <v>92.94791345108553</v>
       </c>
       <c r="I28" t="n">
-        <v>146.4662571175369</v>
+        <v>84.83351853523928</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>20.17648578770671</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>12.15606223631478</v>
       </c>
       <c r="R28" t="n">
-        <v>163.8605191622716</v>
+        <v>105.7360280169877</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8102057935515</v>
+        <v>154.1982412131549</v>
       </c>
       <c r="T28" t="n">
-        <v>226.6691135000563</v>
+        <v>158.9579828382441</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3027339191093</v>
+        <v>217.5978139955301</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>183.4198726770363</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>217.8052276897993</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>156.9918847422455</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>149.8668827053031</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>314.0160710166889</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>296.5551211242159</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>285.9652709738913</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>313.2125994254701</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>338.1582750949198</v>
       </c>
       <c r="G29" t="n">
-        <v>414.6367263390697</v>
+        <v>346.4441778805278</v>
       </c>
       <c r="H29" t="n">
-        <v>332.654015158888</v>
+        <v>269.3151762475092</v>
       </c>
       <c r="I29" t="n">
-        <v>184.7994937051469</v>
+        <v>136.3303514708541</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>72.30751103848763</v>
       </c>
       <c r="S29" t="n">
-        <v>193.8433399116564</v>
+        <v>137.0940698796061</v>
       </c>
       <c r="T29" t="n">
-        <v>220.1803856409053</v>
+        <v>153.761775123177</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2923720137513</v>
+        <v>182.6166191420196</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>259.0344878233432</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>280.5231980706213</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>301.0133300316774</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>317.5201680092619</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>97.81541300307566</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>103.9907283415241</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>78.72729491784708</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>88.92730980860927</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>76.3514417465922</v>
       </c>
       <c r="G30" t="n">
-        <v>136.9871697683942</v>
+        <v>68.55041776694763</v>
       </c>
       <c r="H30" t="n">
-        <v>108.7938786076111</v>
+        <v>42.79015645665277</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>18.08530657589572</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>26.76307325358789</v>
       </c>
       <c r="S30" t="n">
-        <v>165.0641745378389</v>
+        <v>101.5662019745415</v>
       </c>
       <c r="T30" t="n">
-        <v>198.728398625364</v>
+        <v>131.1433303253802</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9179381734211</v>
+        <v>157.2186555954021</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>164.0828165026336</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>182.9772125141279</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>137.0552145566858</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>136.9649251305127</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>111.1142095351456</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>98.52905045183616</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>79.89770237142068</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>77.71619199977749</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>76.70327737613957</v>
       </c>
       <c r="G31" t="n">
-        <v>167.6922296731294</v>
+        <v>99.21005561856703</v>
       </c>
       <c r="H31" t="n">
-        <v>159.571016214239</v>
+        <v>92.94791345108553</v>
       </c>
       <c r="I31" t="n">
-        <v>146.4662571175369</v>
+        <v>84.83351853523928</v>
       </c>
       <c r="J31" t="n">
-        <v>72.23757736389061</v>
+        <v>20.17648578770671</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.14583096471014</v>
+        <v>12.15606223631478</v>
       </c>
       <c r="R31" t="n">
-        <v>163.8605191622716</v>
+        <v>105.7360280169877</v>
       </c>
       <c r="S31" t="n">
-        <v>218.8102057935515</v>
+        <v>154.1982412131549</v>
       </c>
       <c r="T31" t="n">
-        <v>226.6691135000563</v>
+        <v>158.9579828382441</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3027339191093</v>
+        <v>217.5978139955301</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>183.4198726770363</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>217.8052276897993</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>156.9918847422455</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>149.8668827053031</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0838203709769</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>281.6228704785038</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>271.0330203281792</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2803487797581</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>323.2260244492077</v>
       </c>
       <c r="G32" t="n">
-        <v>414.6367263390697</v>
+        <v>331.5119272348157</v>
       </c>
       <c r="H32" t="n">
-        <v>332.654015158888</v>
+        <v>254.3829256017971</v>
       </c>
       <c r="I32" t="n">
-        <v>184.7994937051469</v>
+        <v>121.3981008251421</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>57.37526039277561</v>
       </c>
       <c r="S32" t="n">
-        <v>193.8433399116564</v>
+        <v>122.1618192338941</v>
       </c>
       <c r="T32" t="n">
-        <v>220.1803856409053</v>
+        <v>138.829524477465</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2923720137513</v>
+        <v>167.6843684963075</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>244.1022371776312</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>265.5909474249093</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>286.0810793859653</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5879173635499</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>82.88316235736364</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>89.05847769581204</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>63.79504427213506</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>73.99505916289725</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>61.41919110088018</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9871697683942</v>
+        <v>53.61816712123562</v>
       </c>
       <c r="H33" t="n">
-        <v>108.7938786076111</v>
+        <v>27.85790581094075</v>
       </c>
       <c r="I33" t="n">
-        <v>77.12765456497084</v>
+        <v>3.153055930183705</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>78.03303713061706</v>
+        <v>11.83082260787587</v>
       </c>
       <c r="S33" t="n">
-        <v>165.0641745378389</v>
+        <v>86.63395132882945</v>
       </c>
       <c r="T33" t="n">
-        <v>198.728398625364</v>
+        <v>116.2110796796681</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2864049496901</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>149.1505658569216</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>168.0449618684159</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>122.1229639109738</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>122.0326744848007</v>
       </c>
     </row>
     <row r="34">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>96.1819588894336</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>83.59679980612414</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>64.96545172570866</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>62.78394135406548</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>61.77102673042755</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6922296731294</v>
+        <v>84.27780497285501</v>
       </c>
       <c r="H34" t="n">
-        <v>159.571016214239</v>
+        <v>78.01566280537351</v>
       </c>
       <c r="I34" t="n">
-        <v>146.4662571175369</v>
+        <v>69.90126788952726</v>
       </c>
       <c r="J34" t="n">
-        <v>72.23757736389061</v>
+        <v>5.244235141994693</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>163.8605191622716</v>
+        <v>90.80377737127573</v>
       </c>
       <c r="S34" t="n">
-        <v>218.8102057935515</v>
+        <v>139.2659905674429</v>
       </c>
       <c r="T34" t="n">
-        <v>226.6691135000563</v>
+        <v>144.0257321925321</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3027339191093</v>
+        <v>202.6655633498181</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>168.4876220313243</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>202.8729770440873</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0596340965334</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>134.9346320595911</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0838203709769</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>281.6228704785038</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>271.0330203281792</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2803487797581</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>323.2260244492077</v>
       </c>
       <c r="G35" t="n">
-        <v>414.6367263390697</v>
+        <v>331.5119272348157</v>
       </c>
       <c r="H35" t="n">
-        <v>332.654015158888</v>
+        <v>254.3829256017971</v>
       </c>
       <c r="I35" t="n">
-        <v>184.7994937051469</v>
+        <v>121.3981008251421</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.0327934026353</v>
+        <v>57.37526039277561</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8433399116564</v>
+        <v>122.1618192338941</v>
       </c>
       <c r="T35" t="n">
-        <v>220.1803856409053</v>
+        <v>138.829524477465</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2923720137513</v>
+        <v>167.6843684963075</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>244.1022371776312</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>265.5909474249093</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>286.0810793859653</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5879173635499</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>82.88316235736364</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>89.05847769581204</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>63.79504427213506</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>73.99505916289725</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>61.41919110088018</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9871697683942</v>
+        <v>53.61816712123562</v>
       </c>
       <c r="H36" t="n">
-        <v>108.7938786076111</v>
+        <v>27.85790581094075</v>
       </c>
       <c r="I36" t="n">
-        <v>77.12765456497084</v>
+        <v>3.153055930183705</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.03303713061706</v>
+        <v>11.83082260787587</v>
       </c>
       <c r="S36" t="n">
-        <v>165.0641745378389</v>
+        <v>86.63395132882945</v>
       </c>
       <c r="T36" t="n">
-        <v>198.728398625364</v>
+        <v>116.2110796796681</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2864049496901</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>149.1505658569216</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>168.0449618684159</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>122.1229639109738</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>122.0326744848007</v>
       </c>
     </row>
     <row r="37">
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>96.1819588894336</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>83.59679980612414</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>64.96545172570866</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>62.78394135406548</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>61.77102673042755</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6922296731294</v>
+        <v>84.27780497285501</v>
       </c>
       <c r="H37" t="n">
-        <v>159.571016214239</v>
+        <v>78.01566280537351</v>
       </c>
       <c r="I37" t="n">
-        <v>146.4662571175369</v>
+        <v>69.90126788952726</v>
       </c>
       <c r="J37" t="n">
-        <v>72.23757736389061</v>
+        <v>5.244235141994693</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>163.8605191622716</v>
+        <v>90.80377737127573</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8102057935515</v>
+        <v>139.2659905674429</v>
       </c>
       <c r="T37" t="n">
-        <v>226.6691135000563</v>
+        <v>144.0257321925321</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3027339191093</v>
+        <v>202.6655633498181</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>168.4876220313243</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>202.8729770440873</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0596340965334</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>134.9346320595911</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0838203709769</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>281.6228704785038</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>271.0330203281792</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2803487797581</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>323.2260244492077</v>
       </c>
       <c r="G38" t="n">
-        <v>414.6367263390697</v>
+        <v>331.5119272348157</v>
       </c>
       <c r="H38" t="n">
-        <v>332.654015158888</v>
+        <v>254.3829256017971</v>
       </c>
       <c r="I38" t="n">
-        <v>184.7994937051469</v>
+        <v>121.3981008251421</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>57.37526039277559</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8433399116564</v>
+        <v>122.1618192338941</v>
       </c>
       <c r="T38" t="n">
-        <v>220.1803856409053</v>
+        <v>138.829524477465</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2923720137513</v>
+        <v>167.6843684963075</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>244.1022371776312</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>265.5909474249093</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>286.0810793859653</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5879173635499</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>82.88316235736363</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>89.05847769581203</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>63.79504427213504</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>73.99505916289723</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>61.41919110088017</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9871697683942</v>
+        <v>53.6181671212356</v>
       </c>
       <c r="H39" t="n">
-        <v>108.7938786076111</v>
+        <v>27.85790581094074</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>3.153055930183691</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>11.83082260787586</v>
       </c>
       <c r="S39" t="n">
-        <v>165.0641745378389</v>
+        <v>86.63395132882944</v>
       </c>
       <c r="T39" t="n">
-        <v>198.728398625364</v>
+        <v>116.2110796796681</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2864049496901</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>149.1505658569216</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>168.0449618684159</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>122.1229639109738</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>122.0326744848007</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>96.18195888943359</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>83.59679980612412</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>64.96545172570865</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>62.78394135406546</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>61.77102673042754</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6922296731294</v>
+        <v>84.27780497285499</v>
       </c>
       <c r="H40" t="n">
-        <v>159.571016214239</v>
+        <v>78.01566280537349</v>
       </c>
       <c r="I40" t="n">
-        <v>146.4662571175369</v>
+        <v>69.90126788952725</v>
       </c>
       <c r="J40" t="n">
-        <v>72.23757736389061</v>
+        <v>5.244235141994679</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>163.8605191622716</v>
+        <v>90.80377737127571</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8102057935515</v>
+        <v>139.2659905674429</v>
       </c>
       <c r="T40" t="n">
-        <v>226.6691135000563</v>
+        <v>144.0257321925321</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3027339191093</v>
+        <v>202.6655633498181</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>168.4876220313243</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>202.8729770440873</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0596340965334</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>134.9346320595911</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>367.8015910177685</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>350.3406411252955</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>339.7507909749709</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>366.9981194265497</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>391.9437950959994</v>
       </c>
       <c r="G41" t="n">
-        <v>414.6367263390697</v>
+        <v>400.2296978816074</v>
       </c>
       <c r="H41" t="n">
-        <v>332.654015158888</v>
+        <v>323.1006962485888</v>
       </c>
       <c r="I41" t="n">
-        <v>184.7994937051469</v>
+        <v>190.1158714719338</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>126.0930310395673</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8433399116564</v>
+        <v>190.8795898806858</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1803856409053</v>
+        <v>207.5472951242567</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2923720137513</v>
+        <v>236.4021391430992</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>312.8200078244229</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>334.308718071701</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>354.798850032757</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>371.3056880103416</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>151.6009330041553</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>157.7762483426037</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>132.5128149189268</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>142.7128298096889</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>130.1369617476719</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9871697683942</v>
+        <v>122.3359377680273</v>
       </c>
       <c r="H42" t="n">
-        <v>108.7938786076111</v>
+        <v>96.57567645773244</v>
       </c>
       <c r="I42" t="n">
-        <v>77.12765456497084</v>
+        <v>71.87082657697539</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.03303713061706</v>
+        <v>80.54859325466757</v>
       </c>
       <c r="S42" t="n">
-        <v>165.0641745378389</v>
+        <v>155.3517219756211</v>
       </c>
       <c r="T42" t="n">
-        <v>198.728398625364</v>
+        <v>184.9288503264598</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9179381734211</v>
+        <v>211.0041755964818</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>217.8683365037133</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>236.7627325152076</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>190.8407345577655</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>190.7504451315924</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>164.8997295362253</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>152.3145704529158</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>133.6832223725004</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5017120008572</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4887973772192</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6922296731294</v>
+        <v>152.9955756196467</v>
       </c>
       <c r="H43" t="n">
-        <v>159.571016214239</v>
+        <v>146.7334334521652</v>
       </c>
       <c r="I43" t="n">
-        <v>146.4662571175369</v>
+        <v>138.619038536319</v>
       </c>
       <c r="J43" t="n">
-        <v>72.23757736389061</v>
+        <v>73.96200578878639</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.14583096471014</v>
+        <v>65.94158223739446</v>
       </c>
       <c r="R43" t="n">
-        <v>163.8605191622716</v>
+        <v>159.5215480180674</v>
       </c>
       <c r="S43" t="n">
-        <v>218.8102057935515</v>
+        <v>207.9837612142346</v>
       </c>
       <c r="T43" t="n">
-        <v>226.6691135000563</v>
+        <v>212.7435028393238</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3027339191093</v>
+        <v>271.3833339966097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>237.205392678116</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>271.590747690879</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>210.7774047433251</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>203.6524027063828</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>367.8015910177685</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>350.3406411252955</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>339.7507909749709</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>366.9981194265497</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>391.9437950959994</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6367263390697</v>
+        <v>400.2296978816074</v>
       </c>
       <c r="H44" t="n">
-        <v>332.654015158888</v>
+        <v>323.1006962485888</v>
       </c>
       <c r="I44" t="n">
-        <v>184.7994937051469</v>
+        <v>190.1158714719338</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>126.0930310395673</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8433399116564</v>
+        <v>190.8795898806858</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1803856409053</v>
+        <v>207.5472951242567</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2923720137513</v>
+        <v>236.4021391430992</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>312.8200078244229</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>334.308718071701</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>354.798850032757</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>371.3056880103416</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>151.6009330041553</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>157.7762483426037</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>132.5128149189268</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>142.7128298096889</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>130.1369617476719</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9871697683942</v>
+        <v>122.3359377680273</v>
       </c>
       <c r="H45" t="n">
-        <v>108.7938786076111</v>
+        <v>96.57567645773244</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>71.8708265769754</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>80.54859325466757</v>
       </c>
       <c r="S45" t="n">
-        <v>165.0641745378389</v>
+        <v>155.3517219756211</v>
       </c>
       <c r="T45" t="n">
-        <v>198.728398625364</v>
+        <v>184.9288503264598</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9179381734211</v>
+        <v>211.0041755964818</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>217.8683365037133</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>236.7627325152076</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>190.8407345577655</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>190.7504451315924</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>164.8997295362253</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>152.3145704529158</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>133.6832223725004</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5017120008572</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4887973772192</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6922296731294</v>
+        <v>152.9955756196467</v>
       </c>
       <c r="H46" t="n">
-        <v>159.571016214239</v>
+        <v>146.7334334521652</v>
       </c>
       <c r="I46" t="n">
-        <v>146.4662571175369</v>
+        <v>138.619038536319</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>73.96200578878639</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>65.94158223739446</v>
       </c>
       <c r="R46" t="n">
-        <v>163.8605191622716</v>
+        <v>159.5215480180674</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8102057935515</v>
+        <v>207.9837612142346</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6691135000563</v>
+        <v>212.7435028393238</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3027339191093</v>
+        <v>271.3833339966097</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>237.205392678116</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>271.590747690879</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>210.7774047433251</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>203.6524027063828</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>275202.4540808474</v>
+        <v>480637.990041815</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>275202.4540808474</v>
+        <v>480637.990041815</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>275202.4540808474</v>
+        <v>480637.990041815</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>275202.4540808474</v>
+        <v>480637.990041815</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>275202.4540808474</v>
+        <v>480637.990041815</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>275202.4540808474</v>
+        <v>453831.4415982941</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>275202.4540808474</v>
+        <v>453831.4415982941</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>275202.4540808474</v>
+        <v>486698.4093395293</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>275202.4540808474</v>
+        <v>486698.4093395293</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>275202.4540808474</v>
+        <v>486698.4093395293</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>275202.4540808474</v>
+        <v>335223.6128919133</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275202.4540808474</v>
+        <v>335223.6128919133</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415572</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.979441557</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="D2" t="n">
         <v>675902.9794415568</v>
       </c>
       <c r="E2" t="n">
-        <v>188628.9044472749</v>
+        <v>340373.3098948806</v>
       </c>
       <c r="F2" t="n">
-        <v>188628.9044472749</v>
+        <v>340373.3098948806</v>
       </c>
       <c r="G2" t="n">
-        <v>188628.9044472749</v>
+        <v>340373.3098948806</v>
       </c>
       <c r="H2" t="n">
-        <v>188628.9044472749</v>
+        <v>340373.3098948806</v>
       </c>
       <c r="I2" t="n">
-        <v>188628.9044472749</v>
+        <v>340373.3098948805</v>
       </c>
       <c r="J2" t="n">
-        <v>188628.9044472749</v>
+        <v>316464.7666884966</v>
       </c>
       <c r="K2" t="n">
-        <v>188628.9044472749</v>
+        <v>316464.7666884965</v>
       </c>
       <c r="L2" t="n">
-        <v>188628.9044472749</v>
+        <v>345778.548727977</v>
       </c>
       <c r="M2" t="n">
-        <v>188628.9044472749</v>
+        <v>345778.548727977</v>
       </c>
       <c r="N2" t="n">
-        <v>188628.9044472749</v>
+        <v>345778.548727977</v>
       </c>
       <c r="O2" t="n">
-        <v>188628.9044472749</v>
+        <v>210679.4059503729</v>
       </c>
       <c r="P2" t="n">
-        <v>188628.9044472749</v>
+        <v>210679.4059503729</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>92835.25223201262</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54974.21651743336</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>11945.8005165696</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63709.44000359975</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="F4" t="n">
-        <v>63709.44000359975</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="G4" t="n">
-        <v>63709.44000359975</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="H4" t="n">
-        <v>63709.44000359975</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="I4" t="n">
-        <v>63709.44000359975</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="J4" t="n">
-        <v>63709.44000359975</v>
+        <v>192716.7262634268</v>
       </c>
       <c r="K4" t="n">
-        <v>63709.44000359975</v>
+        <v>192716.7262634268</v>
       </c>
       <c r="L4" t="n">
-        <v>63709.44000359975</v>
+        <v>212997.1403828416</v>
       </c>
       <c r="M4" t="n">
-        <v>63709.44000359975</v>
+        <v>212997.1403828417</v>
       </c>
       <c r="N4" t="n">
-        <v>63709.44000359975</v>
+        <v>212997.1403828416</v>
       </c>
       <c r="O4" t="n">
-        <v>63709.44000359975</v>
+        <v>119530.3008253372</v>
       </c>
       <c r="P4" t="n">
-        <v>63709.44000359975</v>
+        <v>119530.3008253372</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3611.612105008322</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="F5" t="n">
-        <v>3611.612105008322</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="G5" t="n">
-        <v>3611.612105008322</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="H5" t="n">
-        <v>3611.612105008322</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="I5" t="n">
-        <v>3611.612105008322</v>
+        <v>7562.445740326808</v>
       </c>
       <c r="J5" t="n">
-        <v>3611.612105008322</v>
+        <v>6540.497744182062</v>
       </c>
       <c r="K5" t="n">
-        <v>3611.612105008322</v>
+        <v>6540.497744182062</v>
       </c>
       <c r="L5" t="n">
-        <v>3611.612105008322</v>
+        <v>7795.837123716426</v>
       </c>
       <c r="M5" t="n">
-        <v>3611.612105008322</v>
+        <v>7795.837123716426</v>
       </c>
       <c r="N5" t="n">
-        <v>3611.612105008322</v>
+        <v>7795.837123716427</v>
       </c>
       <c r="O5" t="n">
-        <v>3611.612105008322</v>
+        <v>2018.802863211295</v>
       </c>
       <c r="P5" t="n">
-        <v>3611.612105008322</v>
+        <v>2018.802863211295</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189875.388892592</v>
+        <v>189831.2531139104</v>
       </c>
       <c r="C6" t="n">
-        <v>189875.3888925918</v>
+        <v>189831.2531139104</v>
       </c>
       <c r="D6" t="n">
-        <v>189875.3888925917</v>
+        <v>189831.2531139106</v>
       </c>
       <c r="E6" t="n">
-        <v>-11792.14766133324</v>
+        <v>20506.32439477245</v>
       </c>
       <c r="F6" t="n">
-        <v>121307.8523386668</v>
+        <v>113341.5766267851</v>
       </c>
       <c r="G6" t="n">
-        <v>121307.8523386668</v>
+        <v>113341.5766267851</v>
       </c>
       <c r="H6" t="n">
-        <v>121307.8523386668</v>
+        <v>113341.5766267851</v>
       </c>
       <c r="I6" t="n">
-        <v>121307.8523386668</v>
+        <v>113341.576626785</v>
       </c>
       <c r="J6" t="n">
-        <v>121307.8523386668</v>
+        <v>51297.1233316503</v>
       </c>
       <c r="K6" t="n">
-        <v>121307.8523386668</v>
+        <v>106271.3398490835</v>
       </c>
       <c r="L6" t="n">
-        <v>121307.8523386668</v>
+        <v>102991.864298484</v>
       </c>
       <c r="M6" t="n">
-        <v>121307.8523386668</v>
+        <v>114937.6648150535</v>
       </c>
       <c r="N6" t="n">
-        <v>121307.8523386668</v>
+        <v>114937.6648150535</v>
       </c>
       <c r="O6" t="n">
-        <v>121307.8523386668</v>
+        <v>74988.48243795594</v>
       </c>
       <c r="P6" t="n">
-        <v>121307.8523386668</v>
+        <v>74988.48243795593</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="H3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="I3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="J3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="K3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="L3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="M3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="N3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="O3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="P3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>80.87383288310647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>68.71777064679171</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.932250645712</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80.87383288310647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>68.71777064679171</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="12">
@@ -28168,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="13">
@@ -28247,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28292,31 +28292,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="15">
@@ -28405,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="16">
@@ -28484,34 +28484,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28529,31 +28529,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28611,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="19">
@@ -28721,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28766,31 +28766,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28848,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="22">
@@ -28958,34 +28958,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29085,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
     </row>
     <row r="24">
@@ -29116,28 +29116,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
     </row>
     <row r="25">
@@ -29195,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29240,31 +29240,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
     </row>
     <row r="28">
@@ -29432,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29477,31 +29477,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
     </row>
     <row r="31">
@@ -29669,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29714,31 +29714,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>68.71777064679168</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29796,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
     </row>
     <row r="33">
@@ -29827,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
     </row>
     <row r="34">
@@ -29906,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29951,31 +29951,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30033,28 +30033,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
     </row>
     <row r="36">
@@ -30064,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
     </row>
     <row r="37">
@@ -30143,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30188,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>83.65002129250369</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30270,28 +30270,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
     </row>
     <row r="40">
@@ -30380,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30425,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>83.65002129250371</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30662,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="46">
@@ -30854,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J11" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L11" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M11" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S11" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H12" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I12" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K12" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O12" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R12" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S12" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H13" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I13" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J13" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K13" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L13" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M13" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N13" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O13" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P13" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R13" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S13" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J14" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L14" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M14" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N14" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P14" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S14" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T14" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H15" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I15" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J15" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K15" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L15" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N15" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O15" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R15" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S15" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H16" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I16" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J16" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K16" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L16" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M16" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N16" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O16" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R16" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S16" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H17" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I17" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J17" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L17" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M17" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N17" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O17" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P17" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R17" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S17" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T17" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H18" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I18" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J18" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K18" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L18" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M18" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N18" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O18" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P18" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R18" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S18" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T18" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H19" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I19" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J19" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K19" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L19" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M19" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N19" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O19" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R19" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S19" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T19" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H20" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I20" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J20" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L20" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M20" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O20" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P20" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R20" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S20" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T20" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H21" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I21" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J21" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K21" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L21" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M21" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N21" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O21" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P21" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R21" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S21" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T21" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H22" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I22" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J22" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K22" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L22" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M22" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N22" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O22" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P22" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R22" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S22" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H23" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I23" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J23" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L23" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M23" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N23" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O23" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P23" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R23" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S23" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T23" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H24" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I24" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J24" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K24" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L24" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M24" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N24" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O24" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P24" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R24" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S24" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T24" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H25" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I25" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J25" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K25" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L25" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M25" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N25" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O25" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P25" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R25" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S25" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T25" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H26" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I26" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J26" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L26" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M26" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N26" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O26" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P26" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R26" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S26" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T26" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H27" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I27" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J27" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K27" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L27" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M27" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N27" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O27" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P27" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R27" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S27" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T27" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H28" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I28" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J28" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K28" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L28" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M28" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N28" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O28" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R28" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S28" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T28" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H29" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I29" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J29" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L29" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M29" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N29" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O29" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P29" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R29" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S29" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T29" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H30" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I30" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J30" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K30" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L30" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M30" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N30" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O30" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P30" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R30" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S30" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T30" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H31" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I31" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J31" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K31" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L31" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M31" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N31" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O31" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P31" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R31" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S31" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T31" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H32" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I32" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J32" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M32" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N32" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O32" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P32" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R32" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S32" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T32" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H33" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I33" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J33" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K33" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L33" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M33" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N33" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O33" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P33" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R33" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S33" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T33" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H34" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I34" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J34" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K34" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L34" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M34" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N34" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O34" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P34" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R34" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S34" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T34" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H35" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I35" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J35" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L35" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M35" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N35" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O35" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P35" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R35" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S35" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T35" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H36" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I36" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J36" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K36" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L36" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M36" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N36" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O36" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P36" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R36" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S36" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T36" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H37" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I37" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J37" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K37" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L37" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M37" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N37" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O37" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P37" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R37" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S37" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T37" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H38" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I38" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J38" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L38" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M38" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N38" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O38" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P38" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q38" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R38" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S38" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T38" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H39" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I39" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J39" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K39" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L39" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M39" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N39" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O39" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P39" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R39" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S39" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T39" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H40" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I40" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J40" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L40" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M40" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N40" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O40" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P40" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R40" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S40" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T40" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H41" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I41" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J41" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L41" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N41" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O41" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P41" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R41" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S41" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T41" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H42" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I42" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J42" t="n">
-        <v>33.66701417430512</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K42" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L42" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M42" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N42" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O42" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P42" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R42" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S42" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T42" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H43" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I43" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J43" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K43" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L43" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M43" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N43" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O43" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P43" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R43" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S43" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T43" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H44" t="n">
-        <v>6.820786956879159</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I44" t="n">
-        <v>25.67639586525902</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J44" t="n">
-        <v>56.52686605457566</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>84.71911913742149</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L44" t="n">
-        <v>105.1015586669311</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M44" t="n">
-        <v>116.9457349192831</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N44" t="n">
-        <v>118.8380391732788</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O44" t="n">
-        <v>112.215390541279</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P44" t="n">
-        <v>95.77323963216597</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.92171438932597</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R44" t="n">
-        <v>41.83632453851442</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S44" t="n">
-        <v>15.17672967458894</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T44" t="n">
-        <v>2.915463923226025</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H45" t="n">
-        <v>3.441565628885376</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I45" t="n">
-        <v>12.26897828644423</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J45" t="n">
-        <v>33.66701417430512</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K45" t="n">
-        <v>57.54228962700857</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L45" t="n">
-        <v>77.37270956311104</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M45" t="n">
-        <v>90.29030262520804</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N45" t="n">
-        <v>92.68001826851675</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O45" t="n">
-        <v>84.7841102044255</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P45" t="n">
-        <v>68.04672313824318</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.48743236288827</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R45" t="n">
-        <v>22.12479702202607</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S45" t="n">
-        <v>6.61899656599889</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T45" t="n">
-        <v>1.436330069457611</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H46" t="n">
-        <v>2.656156293200588</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I46" t="n">
-        <v>8.984217809721411</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J46" t="n">
-        <v>21.12160275278216</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K46" t="n">
-        <v>34.70928162280519</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L46" t="n">
-        <v>44.41593048977749</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M46" t="n">
-        <v>46.83037112848434</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N46" t="n">
-        <v>45.71684957407514</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O46" t="n">
-        <v>42.22691006818274</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P46" t="n">
-        <v>36.1324164874648</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.01621228698425</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R46" t="n">
-        <v>13.43287221489784</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S46" t="n">
-        <v>5.206392243420778</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T46" t="n">
-        <v>1.27647592822523</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
